--- a/联机信号-0331.xlsx
+++ b/联机信号-0331.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\GIT储存库\PLC-mitsubishielectric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A3DFA2-B767-4979-A749-FB5E38775241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4C8AA0-0B42-4769-95B2-4CB800348C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="330" windowWidth="14040" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="222联机信号" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="944">
   <si>
     <t>222联机信号表</t>
   </si>
@@ -2882,6 +2882,22 @@
   </si>
   <si>
     <t>桁架设备异常</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>X1040</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y1040</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许放</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>工检有无</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3078,7 +3094,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3134,24 +3150,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3167,10 +3165,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3180,6 +3190,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3457,10 +3470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N69"/>
+  <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20:K59"/>
+    <sheetView tabSelected="1" topLeftCell="G43" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3479,15 +3492,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
       <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3499,14 +3512,14 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="20"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
@@ -3533,10 +3546,10 @@
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="26" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="7" t="s">
@@ -3568,8 +3581,8 @@
       <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="7" t="s">
         <v>19</v>
       </c>
@@ -3599,8 +3612,8 @@
       <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
       <c r="H5" s="7" t="s">
         <v>25</v>
       </c>
@@ -3626,8 +3639,8 @@
       <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="7" t="s">
         <v>29</v>
       </c>
@@ -3653,8 +3666,8 @@
       <c r="E7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="7" t="s">
         <v>33</v>
       </c>
@@ -3680,8 +3693,8 @@
       <c r="E8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="7" t="s">
         <v>37</v>
       </c>
@@ -3707,8 +3720,8 @@
       <c r="E9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="7" t="s">
         <v>41</v>
       </c>
@@ -3734,8 +3747,8 @@
       <c r="E10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
       <c r="H10" s="7" t="s">
         <v>45</v>
       </c>
@@ -3765,10 +3778,10 @@
       <c r="E11" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="29" t="s">
         <v>112</v>
       </c>
       <c r="H11" s="16" t="s">
@@ -3800,8 +3813,8 @@
       <c r="E12" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
       <c r="H12" s="16" t="s">
         <v>358</v>
       </c>
@@ -3831,8 +3844,8 @@
       <c r="E13" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
       <c r="H13" s="16" t="s">
         <v>363</v>
       </c>
@@ -3862,8 +3875,8 @@
       <c r="E14" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
       <c r="H14" s="16" t="s">
         <v>368</v>
       </c>
@@ -3891,8 +3904,8 @@
       <c r="E15" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="16" t="s">
         <v>373</v>
       </c>
@@ -3918,8 +3931,8 @@
       <c r="E16" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
       <c r="H16" s="16" t="s">
         <v>378</v>
       </c>
@@ -3941,8 +3954,8 @@
       <c r="E17" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
       <c r="H17" s="16" t="s">
         <v>383</v>
       </c>
@@ -3964,8 +3977,8 @@
       <c r="E18" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
       <c r="H18" s="16" t="s">
         <v>388</v>
       </c>
@@ -3976,19 +3989,19 @@
       <c r="K18" s="14"/>
     </row>
     <row r="19" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="30" t="s">
         <v>938</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="34"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="32"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
@@ -4006,22 +4019,22 @@
       <c r="E20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="27" t="s">
         <v>937</v>
       </c>
-      <c r="H20" s="25" t="s">
+      <c r="H20" s="19" t="s">
         <v>862</v>
       </c>
-      <c r="I20" s="29" t="s">
+      <c r="I20" s="23" t="s">
         <v>878</v>
       </c>
-      <c r="J20" s="25" t="s">
+      <c r="J20" s="19" t="s">
         <v>875</v>
       </c>
-      <c r="K20" s="29" t="s">
+      <c r="K20" s="23" t="s">
         <v>880</v>
       </c>
     </row>
@@ -4041,18 +4054,18 @@
       <c r="E21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="25" t="s">
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="I21" s="29" t="s">
+      <c r="I21" s="23" t="s">
         <v>879</v>
       </c>
-      <c r="J21" s="25" t="s">
+      <c r="J21" s="19" t="s">
         <v>540</v>
       </c>
-      <c r="K21" s="29" t="s">
+      <c r="K21" s="23" t="s">
         <v>881</v>
       </c>
     </row>
@@ -4072,15 +4085,15 @@
       <c r="E22" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="25" t="s">
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="J22" s="25" t="s">
+      <c r="J22" s="19" t="s">
         <v>543</v>
       </c>
-      <c r="K22" s="29" t="s">
+      <c r="K22" s="23" t="s">
         <v>882</v>
       </c>
     </row>
@@ -4100,15 +4113,15 @@
       <c r="E23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="25" t="s">
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="J23" s="25" t="s">
+      <c r="J23" s="19" t="s">
         <v>545</v>
       </c>
-      <c r="K23" s="29" t="s">
+      <c r="K23" s="23" t="s">
         <v>883</v>
       </c>
     </row>
@@ -4128,13 +4141,13 @@
       <c r="E24" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="25" t="s">
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="I24" s="26"/>
-      <c r="J24" s="25" t="s">
+      <c r="I24" s="20"/>
+      <c r="J24" s="19" t="s">
         <v>546</v>
       </c>
     </row>
@@ -4150,13 +4163,13 @@
       <c r="E25" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="25" t="s">
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="I25" s="26"/>
-      <c r="J25" s="25" t="s">
+      <c r="I25" s="20"/>
+      <c r="J25" s="19" t="s">
         <v>547</v>
       </c>
     </row>
@@ -4172,18 +4185,18 @@
       <c r="E26" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="25" t="s">
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="I26" s="27"/>
-      <c r="J26" s="25" t="s">
+      <c r="I26" s="21"/>
+      <c r="J26" s="19" t="s">
         <v>548</v>
       </c>
-      <c r="K26" s="28"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
+      <c r="K26" s="22"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
@@ -4197,18 +4210,18 @@
       <c r="E27" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="25" t="s">
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="I27" s="28"/>
-      <c r="J27" s="25" t="s">
+      <c r="I27" s="22"/>
+      <c r="J27" s="19" t="s">
         <v>549</v>
       </c>
-      <c r="K27" s="27"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
+      <c r="K27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
@@ -4226,16 +4239,16 @@
       <c r="E28" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="25" t="s">
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="19" t="s">
         <v>863</v>
       </c>
-      <c r="J28" s="25" t="s">
+      <c r="J28" s="19" t="s">
         <v>876</v>
       </c>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
@@ -4253,22 +4266,22 @@
       <c r="E29" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="25" t="s">
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="19" t="s">
         <v>864</v>
       </c>
-      <c r="I29" s="29" t="s">
+      <c r="I29" s="23" t="s">
         <v>890</v>
       </c>
-      <c r="J29" s="25" t="s">
+      <c r="J29" s="19" t="s">
         <v>877</v>
       </c>
-      <c r="K29" s="29" t="s">
+      <c r="K29" s="23" t="s">
         <v>894</v>
       </c>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
@@ -4286,22 +4299,22 @@
       <c r="E30" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="25" t="s">
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="19" t="s">
         <v>865</v>
       </c>
-      <c r="I30" s="29" t="s">
+      <c r="I30" s="23" t="s">
         <v>891</v>
       </c>
-      <c r="J30" s="25" t="s">
+      <c r="J30" s="19" t="s">
         <v>884</v>
       </c>
-      <c r="K30" s="29" t="s">
+      <c r="K30" s="23" t="s">
         <v>895</v>
       </c>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
@@ -4319,22 +4332,22 @@
       <c r="E31" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="25" t="s">
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="19" t="s">
         <v>870</v>
       </c>
-      <c r="I31" s="29" t="s">
+      <c r="I31" s="23" t="s">
         <v>892</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>885</v>
       </c>
-      <c r="K31" s="29" t="s">
+      <c r="K31" s="23" t="s">
         <v>896</v>
       </c>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
@@ -4352,22 +4365,22 @@
       <c r="E32" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="25" t="s">
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="19" t="s">
         <v>871</v>
       </c>
-      <c r="I32" s="29" t="s">
+      <c r="I32" s="23" t="s">
         <v>893</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>886</v>
       </c>
-      <c r="K32" s="29" t="s">
+      <c r="K32" s="23" t="s">
         <v>897</v>
       </c>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
@@ -4383,16 +4396,16 @@
       <c r="E33" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="25" t="s">
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="19" t="s">
         <v>872</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>887</v>
       </c>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
@@ -4406,16 +4419,16 @@
       <c r="E34" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="25" t="s">
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="19" t="s">
         <v>873</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>888</v>
       </c>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
@@ -4429,9 +4442,9 @@
       <c r="E35" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="25" t="s">
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="19" t="s">
         <v>874</v>
       </c>
       <c r="I35" s="7"/>
@@ -4439,8 +4452,8 @@
         <v>889</v>
       </c>
       <c r="K35" s="7"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
@@ -4458,8 +4471,8 @@
       <c r="E36" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
       <c r="H36" s="7" t="s">
         <v>915</v>
       </c>
@@ -4472,8 +4485,8 @@
       <c r="K36" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
@@ -4491,8 +4504,8 @@
       <c r="E37" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
       <c r="H37" s="7" t="s">
         <v>916</v>
       </c>
@@ -4503,8 +4516,8 @@
       <c r="K37" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
@@ -4522,8 +4535,8 @@
       <c r="E38" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
       <c r="H38" s="7" t="s">
         <v>917</v>
       </c>
@@ -4532,8 +4545,8 @@
         <v>123</v>
       </c>
       <c r="K38" s="7"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
@@ -4547,8 +4560,8 @@
       <c r="E39" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
       <c r="H39" s="7" t="s">
         <v>918</v>
       </c>
@@ -4557,8 +4570,8 @@
         <v>126</v>
       </c>
       <c r="K39" s="7"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
@@ -4572,8 +4585,8 @@
       <c r="E40" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
       <c r="H40" s="7" t="s">
         <v>919</v>
       </c>
@@ -4582,8 +4595,8 @@
         <v>128</v>
       </c>
       <c r="K40" s="7"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
@@ -4597,8 +4610,8 @@
       <c r="E41" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
       <c r="H41" s="7" t="s">
         <v>920</v>
       </c>
@@ -4607,8 +4620,8 @@
         <v>130</v>
       </c>
       <c r="K41" s="7"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
@@ -4622,8 +4635,8 @@
       <c r="E42" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
       <c r="H42" s="7" t="s">
         <v>921</v>
       </c>
@@ -4632,8 +4645,8 @@
         <v>132</v>
       </c>
       <c r="K42" s="7"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="30"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
@@ -4647,8 +4660,8 @@
       <c r="E43" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
       <c r="H43" s="7" t="s">
         <v>922</v>
       </c>
@@ -4657,8 +4670,8 @@
         <v>134</v>
       </c>
       <c r="K43" s="7"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
@@ -4676,8 +4689,8 @@
       <c r="E44" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F44" s="21"/>
-      <c r="G44" s="22"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="28"/>
       <c r="H44" s="9" t="s">
         <v>923</v>
       </c>
@@ -4690,8 +4703,8 @@
       <c r="K44" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
@@ -4709,8 +4722,8 @@
       <c r="E45" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
       <c r="H45" s="9" t="s">
         <v>924</v>
       </c>
@@ -4720,8 +4733,8 @@
       <c r="K45" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
@@ -4739,16 +4752,16 @@
       <c r="E46" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
       <c r="H46" s="9" t="s">
         <v>866</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="M46" s="30"/>
-      <c r="N46" s="30"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
@@ -4762,16 +4775,16 @@
       <c r="E47" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
       <c r="H47" s="9" t="s">
         <v>868</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="M47" s="30"/>
-      <c r="N47" s="30"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
@@ -4785,16 +4798,16 @@
       <c r="E48" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
       <c r="H48" s="9" t="s">
         <v>925</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
@@ -4808,16 +4821,16 @@
       <c r="E49" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
       <c r="H49" s="9" t="s">
         <v>926</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="M49" s="30"/>
-      <c r="N49" s="30"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
@@ -4831,16 +4844,16 @@
       <c r="E50" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
       <c r="H50" s="9" t="s">
         <v>927</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
@@ -4854,35 +4867,20 @@
       <c r="E51" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
       <c r="H51" s="9" t="s">
         <v>928</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="5">
-        <v>1</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="5">
-        <v>1</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
       <c r="H52" s="9" t="s">
         <v>137</v>
       </c>
@@ -4895,27 +4893,12 @@
       <c r="K52" s="12" t="s">
         <v>939</v>
       </c>
-      <c r="M52" s="30"/>
-      <c r="N52" s="30"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="5">
-        <v>2</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C53" s="5">
-        <v>2</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
       <c r="H53" s="9" t="s">
         <v>141</v>
       </c>
@@ -4925,50 +4908,24 @@
       <c r="J53" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="M53" s="30"/>
-      <c r="N53" s="30"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="5">
-        <v>3</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C54" s="5">
-        <v>3</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
       <c r="H54" s="9" t="s">
         <v>144</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="M54" s="27"/>
-      <c r="N54" s="27"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="5">
-        <v>4</v>
-      </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5">
-        <v>4</v>
-      </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
       <c r="H55" s="9" t="s">
         <v>148</v>
       </c>
@@ -4977,19 +4934,8 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="5">
-        <v>5</v>
-      </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5">
-        <v>5</v>
-      </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
       <c r="H56" s="9" t="s">
         <v>152</v>
       </c>
@@ -4998,19 +4944,8 @@
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" s="5">
-        <v>6</v>
-      </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5">
-        <v>6</v>
-      </c>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
       <c r="H57" s="9" t="s">
         <v>155</v>
       </c>
@@ -5019,19 +4954,8 @@
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" s="5">
-        <v>7</v>
-      </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5">
-        <v>7</v>
-      </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
       <c r="H58" s="9" t="s">
         <v>157</v>
       </c>
@@ -5040,19 +4964,8 @@
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59" s="5">
-        <v>8</v>
-      </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5">
-        <v>8</v>
-      </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
       <c r="H59" s="10" t="s">
         <v>159</v>
       </c>
@@ -5061,6 +4974,21 @@
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" s="5">
+        <v>1</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="5">
+        <v>1</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="H60" s="1" t="s">
         <v>929</v>
       </c>
@@ -5069,6 +4997,21 @@
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" s="5">
+        <v>2</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C61" s="5">
+        <v>2</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="H61" s="1" t="s">
         <v>930</v>
       </c>
@@ -5077,6 +5020,21 @@
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" s="5">
+        <v>3</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" s="5">
+        <v>3</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="H62" s="1" t="s">
         <v>867</v>
       </c>
@@ -5085,11 +5043,16 @@
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B63" s="1">
-        <v>23</v>
-      </c>
-      <c r="D63" s="1">
-        <v>22</v>
+      <c r="A63" s="5">
+        <v>4</v>
+      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5">
+        <v>4</v>
+      </c>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>931</v>
@@ -5099,6 +5062,17 @@
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" s="5">
+        <v>5</v>
+      </c>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5">
+        <v>5</v>
+      </c>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="H64" s="1" t="s">
         <v>869</v>
       </c>
@@ -5106,7 +5080,18 @@
         <v>910</v>
       </c>
     </row>
-    <row r="65" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" s="5">
+        <v>6</v>
+      </c>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5">
+        <v>6</v>
+      </c>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="H65" s="1" t="s">
         <v>932</v>
       </c>
@@ -5114,7 +5099,18 @@
         <v>911</v>
       </c>
     </row>
-    <row r="66" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" s="5">
+        <v>7</v>
+      </c>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5">
+        <v>7</v>
+      </c>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="H66" s="1" t="s">
         <v>933</v>
       </c>
@@ -5122,7 +5118,18 @@
         <v>912</v>
       </c>
     </row>
-    <row r="67" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" s="5">
+        <v>8</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5">
+        <v>8</v>
+      </c>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="H67" s="1" t="s">
         <v>934</v>
       </c>
@@ -5130,13 +5137,49 @@
         <v>913</v>
       </c>
     </row>
-    <row r="68" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M68" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M69" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H71" s="12" t="s">
+        <v>940</v>
+      </c>
+      <c r="J71" s="12" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H72" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="I72" s="12" t="s">
+        <v>942</v>
+      </c>
+      <c r="J72" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H73" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="I73" s="12" t="s">
+        <v>943</v>
+      </c>
+      <c r="J73" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="K73" s="5" t="s">
         <v>83</v>
       </c>
     </row>
@@ -5182,15 +5225,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
       <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5202,14 +5245,14 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="20"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
@@ -5236,10 +5279,10 @@
       <c r="E3" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="26" t="s">
         <v>112</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -5271,8 +5314,8 @@
       <c r="E4" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="1" t="s">
         <v>117</v>
       </c>
@@ -5302,8 +5345,8 @@
       <c r="E5" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
       <c r="H5" s="1" t="s">
         <v>121</v>
       </c>
@@ -5329,8 +5372,8 @@
       <c r="E6" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="1" t="s">
         <v>125</v>
       </c>
@@ -5352,8 +5395,8 @@
       <c r="E7" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="1" t="s">
         <v>127</v>
       </c>
@@ -5375,8 +5418,8 @@
       <c r="E8" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="1" t="s">
         <v>129</v>
       </c>
@@ -5398,8 +5441,8 @@
       <c r="E9" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="1" t="s">
         <v>131</v>
       </c>
@@ -5421,8 +5464,8 @@
       <c r="E10" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
       <c r="H10" s="1" t="s">
         <v>133</v>
       </c>
@@ -5448,10 +5491,10 @@
       <c r="E11" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="26" t="s">
         <v>112</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -5483,8 +5526,8 @@
       <c r="E12" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="1" t="s">
         <v>141</v>
       </c>
@@ -5514,8 +5557,8 @@
       <c r="E13" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="1" t="s">
         <v>144</v>
       </c>
@@ -5545,8 +5588,8 @@
       <c r="E14" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="1" t="s">
         <v>148</v>
       </c>
@@ -5574,8 +5617,8 @@
       <c r="E15" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
       <c r="H15" s="1" t="s">
         <v>152</v>
       </c>
@@ -5601,8 +5644,8 @@
       <c r="E16" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="1" t="s">
         <v>155</v>
       </c>
@@ -5624,8 +5667,8 @@
       <c r="E17" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="1" t="s">
         <v>157</v>
       </c>
@@ -5647,8 +5690,8 @@
       <c r="E18" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
       <c r="H18" s="1" t="s">
         <v>159</v>
       </c>
@@ -5674,10 +5717,10 @@
       <c r="E19" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="26" t="s">
         <v>112</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -5709,8 +5752,8 @@
       <c r="E20" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="1" t="s">
         <v>168</v>
       </c>
@@ -5740,8 +5783,8 @@
       <c r="E21" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
       <c r="H21" s="1" t="s">
         <v>172</v>
       </c>
@@ -5771,8 +5814,8 @@
       <c r="E22" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
       <c r="H22" s="1" t="s">
         <v>176</v>
       </c>
@@ -5802,8 +5845,8 @@
       <c r="E23" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
       <c r="H23" s="1" t="s">
         <v>180</v>
       </c>
@@ -5831,8 +5874,8 @@
       <c r="E24" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
       <c r="H24" s="1" t="s">
         <v>184</v>
       </c>
@@ -5856,8 +5899,8 @@
       <c r="E25" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
       <c r="H25" s="1" t="s">
         <v>187</v>
       </c>
@@ -5879,8 +5922,8 @@
       <c r="E26" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
       <c r="H26" s="1" t="s">
         <v>189</v>
       </c>
@@ -5906,8 +5949,8 @@
       <c r="E27" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
       <c r="H27" s="1" t="s">
         <v>192</v>
       </c>
@@ -5937,8 +5980,8 @@
       <c r="E28" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
       <c r="H28" s="1" t="s">
         <v>197</v>
       </c>
@@ -5968,8 +6011,8 @@
       <c r="E29" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
       <c r="H29" s="1" t="s">
         <v>201</v>
       </c>
@@ -5999,8 +6042,8 @@
       <c r="E30" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
       <c r="H30" s="1" t="s">
         <v>205</v>
       </c>
@@ -6030,8 +6073,8 @@
       <c r="E31" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
       <c r="H31" s="1" t="s">
         <v>209</v>
       </c>
@@ -6059,8 +6102,8 @@
       <c r="E32" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
       <c r="H32" s="1" t="s">
         <v>213</v>
       </c>
@@ -6084,8 +6127,8 @@
       <c r="E33" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
       <c r="H33" s="1" t="s">
         <v>216</v>
       </c>
@@ -6109,8 +6152,8 @@
       <c r="E34" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
       <c r="H34" s="1" t="s">
         <v>218</v>
       </c>
@@ -6138,8 +6181,8 @@
       <c r="E35" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
       <c r="H35" s="1" t="s">
         <v>221</v>
       </c>
@@ -6169,8 +6212,8 @@
       <c r="E36" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
       <c r="H36" s="1" t="s">
         <v>225</v>
       </c>
@@ -6200,8 +6243,8 @@
       <c r="E37" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
       <c r="H37" s="1" t="s">
         <v>229</v>
       </c>
@@ -6231,8 +6274,8 @@
       <c r="E38" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
       <c r="H38" s="1" t="s">
         <v>233</v>
       </c>
@@ -6262,8 +6305,8 @@
       <c r="E39" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
       <c r="H39" s="1" t="s">
         <v>237</v>
       </c>
@@ -6291,8 +6334,8 @@
       <c r="E40" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
       <c r="H40" s="1" t="s">
         <v>241</v>
       </c>
@@ -6316,8 +6359,8 @@
       <c r="E41" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
       <c r="H41" s="1" t="s">
         <v>244</v>
       </c>
@@ -6339,8 +6382,8 @@
       <c r="E42" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
       <c r="H42" s="1" t="s">
         <v>246</v>
       </c>
@@ -6366,8 +6409,8 @@
       <c r="E43" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
       <c r="H43" s="12" t="s">
         <v>828</v>
       </c>
@@ -6397,8 +6440,8 @@
       <c r="E44" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
       <c r="H44" s="12" t="s">
         <v>829</v>
       </c>
@@ -6428,8 +6471,8 @@
       <c r="E45" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
       <c r="H45" s="12" t="s">
         <v>830</v>
       </c>
@@ -6455,8 +6498,8 @@
       <c r="E46" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
       <c r="H46" s="12" t="s">
         <v>831</v>
       </c>
@@ -6478,8 +6521,8 @@
       <c r="E47" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
       <c r="H47" s="12" t="s">
         <v>832</v>
       </c>
@@ -6501,8 +6544,8 @@
       <c r="E48" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
       <c r="H48" s="12" t="s">
         <v>833</v>
       </c>
@@ -6524,8 +6567,8 @@
       <c r="E49" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
       <c r="H49" s="12" t="s">
         <v>834</v>
       </c>
@@ -6547,8 +6590,8 @@
       <c r="E50" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
       <c r="H50" s="12" t="s">
         <v>835</v>
       </c>
@@ -6574,8 +6617,8 @@
       <c r="E51" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
       <c r="H51" s="12" t="s">
         <v>836</v>
       </c>
@@ -6605,8 +6648,8 @@
       <c r="E52" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
       <c r="H52" s="12" t="s">
         <v>251</v>
       </c>
@@ -6636,8 +6679,8 @@
       <c r="E53" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
       <c r="H53" s="12" t="s">
         <v>254</v>
       </c>
@@ -6667,8 +6710,8 @@
       <c r="E54" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
       <c r="H54" s="12" t="s">
         <v>257</v>
       </c>
@@ -6696,8 +6739,8 @@
       <c r="E55" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
       <c r="H55" s="12" t="s">
         <v>258</v>
       </c>
@@ -6721,8 +6764,8 @@
       <c r="E56" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
       <c r="H56" s="12" t="s">
         <v>259</v>
       </c>
@@ -6744,8 +6787,8 @@
       <c r="E57" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
       <c r="H57" s="12" t="s">
         <v>260</v>
       </c>
@@ -6767,8 +6810,8 @@
       <c r="E58" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
       <c r="H58" s="12" t="s">
         <v>261</v>
       </c>
@@ -6794,10 +6837,10 @@
       <c r="E59" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="F59" s="21" t="s">
+      <c r="F59" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="G59" s="21" t="s">
+      <c r="G59" s="26" t="s">
         <v>276</v>
       </c>
       <c r="H59" s="5" t="s">
@@ -6829,8 +6872,8 @@
       <c r="E60" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
       <c r="H60" s="5" t="s">
         <v>280</v>
       </c>
@@ -6860,8 +6903,8 @@
       <c r="E61" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
       <c r="H61" s="5" t="s">
         <v>285</v>
       </c>
@@ -6887,8 +6930,8 @@
       <c r="E62" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
       <c r="H62" s="5" t="s">
         <v>289</v>
       </c>
@@ -6910,8 +6953,8 @@
       <c r="E63" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
       <c r="H63" s="5" t="s">
         <v>291</v>
       </c>
@@ -6933,8 +6976,8 @@
       <c r="E64" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
       <c r="H64" s="5" t="s">
         <v>293</v>
       </c>
@@ -6956,8 +6999,8 @@
       <c r="E65" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="F65" s="21"/>
-      <c r="G65" s="21"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
       <c r="H65" s="5" t="s">
         <v>295</v>
       </c>
@@ -6979,8 +7022,8 @@
       <c r="E66" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="F66" s="21"/>
-      <c r="G66" s="21"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="26"/>
       <c r="H66" s="5" t="s">
         <v>297</v>
       </c>
@@ -6996,13 +7039,13 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="24" t="s">
+      <c r="A69" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="B69" s="24"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
       <c r="I69" s="1" t="s">
         <v>301</v>
       </c>
@@ -8571,15 +8614,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>533</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
       <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
@@ -8591,14 +8634,14 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="20"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
@@ -8625,10 +8668,10 @@
       <c r="E3" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="26" t="s">
         <v>535</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="26" t="s">
         <v>112</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -8660,8 +8703,8 @@
       <c r="E4" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="1" t="s">
         <v>117</v>
       </c>
@@ -8691,8 +8734,8 @@
       <c r="E5" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
       <c r="H5" s="1" t="s">
         <v>121</v>
       </c>
@@ -8718,8 +8761,8 @@
       <c r="E6" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="1" t="s">
         <v>125</v>
       </c>
@@ -8739,8 +8782,8 @@
       <c r="E7" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="1" t="s">
         <v>127</v>
       </c>
@@ -8760,8 +8803,8 @@
       <c r="E8" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="1" t="s">
         <v>129</v>
       </c>
@@ -8781,8 +8824,8 @@
       <c r="E9" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="1" t="s">
         <v>131</v>
       </c>
@@ -8802,8 +8845,8 @@
       <c r="E10" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
       <c r="H10" s="1" t="s">
         <v>133</v>
       </c>
@@ -8827,10 +8870,10 @@
       <c r="E11" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="26" t="s">
         <v>551</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="26" t="s">
         <v>112</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -8862,8 +8905,8 @@
       <c r="E12" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="1" t="s">
         <v>141</v>
       </c>
@@ -8893,8 +8936,8 @@
       <c r="E13" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="1" t="s">
         <v>144</v>
       </c>
@@ -8924,8 +8967,8 @@
       <c r="E14" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="1" t="s">
         <v>148</v>
       </c>
@@ -8953,8 +8996,8 @@
       <c r="E15" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
       <c r="H15" s="1" t="s">
         <v>152</v>
       </c>
@@ -8977,8 +9020,8 @@
       <c r="E16" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="1" t="s">
         <v>155</v>
       </c>
@@ -8998,8 +9041,8 @@
       <c r="E17" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="1" t="s">
         <v>157</v>
       </c>
@@ -9019,8 +9062,8 @@
       <c r="E18" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
       <c r="H18" s="1" t="s">
         <v>159</v>
       </c>
@@ -9044,8 +9087,8 @@
       <c r="E19" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="1" t="s">
         <v>163</v>
       </c>
@@ -9075,8 +9118,8 @@
       <c r="E20" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="1" t="s">
         <v>168</v>
       </c>
@@ -9104,8 +9147,8 @@
       <c r="E21" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
       <c r="H21" s="1" t="s">
         <v>172</v>
       </c>
@@ -9130,8 +9173,8 @@
       <c r="E22" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
       <c r="H22" s="1" t="s">
         <v>176</v>
       </c>
@@ -9156,8 +9199,8 @@
       <c r="E23" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
       <c r="H23" s="1" t="s">
         <v>180</v>
       </c>
@@ -9180,8 +9223,8 @@
       <c r="E24" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
       <c r="H24" s="1" t="s">
         <v>184</v>
       </c>
@@ -9201,8 +9244,8 @@
       <c r="E25" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
       <c r="H25" s="1" t="s">
         <v>187</v>
       </c>
@@ -9222,8 +9265,8 @@
       <c r="E26" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
       <c r="H26" s="1" t="s">
         <v>189</v>
       </c>
@@ -9247,8 +9290,8 @@
       <c r="E27" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
       <c r="H27" s="1" t="s">
         <v>192</v>
       </c>
@@ -9278,8 +9321,8 @@
       <c r="E28" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
       <c r="H28" s="1" t="s">
         <v>197</v>
       </c>
@@ -9307,8 +9350,8 @@
       <c r="E29" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
       <c r="H29" s="1" t="s">
         <v>201</v>
       </c>
@@ -9333,8 +9376,8 @@
       <c r="E30" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
       <c r="H30" s="1" t="s">
         <v>205</v>
       </c>
@@ -9359,8 +9402,8 @@
       <c r="E31" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
       <c r="H31" s="1" t="s">
         <v>209</v>
       </c>
@@ -9383,8 +9426,8 @@
       <c r="E32" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
       <c r="H32" s="1" t="s">
         <v>213</v>
       </c>
@@ -9404,8 +9447,8 @@
       <c r="E33" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
       <c r="H33" s="1" t="s">
         <v>216</v>
       </c>
@@ -9425,8 +9468,8 @@
       <c r="E34" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
       <c r="H34" s="1" t="s">
         <v>218</v>
       </c>
@@ -9450,8 +9493,8 @@
       <c r="E35" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
       <c r="H35" s="1" t="s">
         <v>595</v>
       </c>
@@ -9481,8 +9524,8 @@
       <c r="E36" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
       <c r="H36" s="1" t="s">
         <v>600</v>
       </c>
@@ -9512,8 +9555,8 @@
       <c r="E37" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
       <c r="H37" s="1" t="s">
         <v>605</v>
       </c>
@@ -9543,8 +9586,8 @@
       <c r="E38" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
       <c r="H38" s="1" t="s">
         <v>609</v>
       </c>
@@ -9574,8 +9617,8 @@
       <c r="E39" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
       <c r="H39" s="1" t="s">
         <v>613</v>
       </c>
@@ -9603,8 +9646,8 @@
       <c r="E40" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
       <c r="H40" s="1" t="s">
         <v>617</v>
       </c>
@@ -9630,8 +9673,8 @@
       <c r="E41" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
       <c r="H41" s="1" t="s">
         <v>620</v>
       </c>
@@ -9654,8 +9697,8 @@
       <c r="E42" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
       <c r="H42" s="1" t="s">
         <v>623</v>
       </c>
@@ -9679,8 +9722,8 @@
       <c r="E43" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
       <c r="H43" s="1" t="s">
         <v>626</v>
       </c>
@@ -9710,8 +9753,8 @@
       <c r="E44" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
       <c r="H44" s="1" t="s">
         <v>631</v>
       </c>
@@ -9741,8 +9784,8 @@
       <c r="E45" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
       <c r="H45" s="1" t="s">
         <v>635</v>
       </c>
@@ -9772,8 +9815,8 @@
       <c r="E46" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
       <c r="H46" s="1" t="s">
         <v>639</v>
       </c>
@@ -9803,8 +9846,8 @@
       <c r="E47" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
       <c r="H47" s="1" t="s">
         <v>643</v>
       </c>
@@ -9832,8 +9875,8 @@
       <c r="E48" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
       <c r="H48" s="1" t="s">
         <v>647</v>
       </c>
@@ -9856,8 +9899,8 @@
       <c r="E49" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
       <c r="H49" s="1" t="s">
         <v>650</v>
       </c>
@@ -9877,8 +9920,8 @@
       <c r="E50" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
       <c r="H50" s="1" t="s">
         <v>652</v>
       </c>
@@ -9902,8 +9945,8 @@
       <c r="E51" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
       <c r="H51" s="1" t="s">
         <v>655</v>
       </c>
@@ -9933,8 +9976,8 @@
       <c r="E52" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
       <c r="H52" s="1" t="s">
         <v>659</v>
       </c>
@@ -9964,8 +10007,8 @@
       <c r="E53" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
       <c r="H53" s="1" t="s">
         <v>663</v>
       </c>
@@ -9991,8 +10034,8 @@
       <c r="E54" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
       <c r="H54" s="1" t="s">
         <v>667</v>
       </c>
@@ -10012,8 +10055,8 @@
       <c r="E55" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
       <c r="H55" s="1" t="s">
         <v>669</v>
       </c>
@@ -10033,8 +10076,8 @@
       <c r="E56" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
       <c r="H56" s="1" t="s">
         <v>671</v>
       </c>
@@ -10054,8 +10097,8 @@
       <c r="E57" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
       <c r="H57" s="1" t="s">
         <v>673</v>
       </c>
@@ -10075,8 +10118,8 @@
       <c r="E58" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
       <c r="H58" s="1" t="s">
         <v>675</v>
       </c>
@@ -10100,10 +10143,10 @@
       <c r="E59" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="F59" s="21" t="s">
+      <c r="F59" s="26" t="s">
         <v>678</v>
       </c>
-      <c r="G59" s="21" t="s">
+      <c r="G59" s="26" t="s">
         <v>112</v>
       </c>
       <c r="H59" s="1" t="s">
@@ -10135,8 +10178,8 @@
       <c r="E60" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
       <c r="H60" s="1" t="s">
         <v>683</v>
       </c>
@@ -10166,8 +10209,8 @@
       <c r="E61" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
       <c r="H61" s="1" t="s">
         <v>687</v>
       </c>
@@ -10197,8 +10240,8 @@
       <c r="E62" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
       <c r="H62" s="1" t="s">
         <v>691</v>
       </c>
@@ -10228,8 +10271,8 @@
       <c r="E63" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
       <c r="H63" s="1" t="s">
         <v>695</v>
       </c>
@@ -10255,8 +10298,8 @@
       <c r="E64" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
       <c r="H64" s="1" t="s">
         <v>699</v>
       </c>
@@ -10276,8 +10319,8 @@
       <c r="E65" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="F65" s="21"/>
-      <c r="G65" s="21"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
       <c r="H65" s="1" t="s">
         <v>701</v>
       </c>
@@ -10297,8 +10340,8 @@
       <c r="E66" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="F66" s="21"/>
-      <c r="G66" s="21"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="26"/>
       <c r="H66" s="1" t="s">
         <v>703</v>
       </c>
@@ -10322,8 +10365,8 @@
       <c r="E67" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="F67" s="21"/>
-      <c r="G67" s="21"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
       <c r="H67" s="1" t="s">
         <v>706</v>
       </c>
@@ -10353,8 +10396,8 @@
       <c r="E68" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
       <c r="H68" s="1" t="s">
         <v>711</v>
       </c>
@@ -10384,8 +10427,8 @@
       <c r="E69" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="F69" s="21"/>
-      <c r="G69" s="21"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
       <c r="H69" s="1" t="s">
         <v>715</v>
       </c>
@@ -10415,8 +10458,8 @@
       <c r="E70" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
       <c r="H70" s="1" t="s">
         <v>719</v>
       </c>
@@ -10446,8 +10489,8 @@
       <c r="E71" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="F71" s="21"/>
-      <c r="G71" s="21"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="26"/>
       <c r="H71" s="1" t="s">
         <v>723</v>
       </c>
@@ -10475,8 +10518,8 @@
       <c r="E72" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="F72" s="21"/>
-      <c r="G72" s="21"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="26"/>
       <c r="H72" s="1" t="s">
         <v>727</v>
       </c>
@@ -10499,8 +10542,8 @@
       <c r="E73" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="F73" s="21"/>
-      <c r="G73" s="21"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
       <c r="H73" s="1" t="s">
         <v>730</v>
       </c>
@@ -10520,8 +10563,8 @@
       <c r="E74" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="F74" s="21"/>
-      <c r="G74" s="21"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="26"/>
       <c r="H74" s="1" t="s">
         <v>732</v>
       </c>
@@ -10545,8 +10588,8 @@
       <c r="E75" s="5" t="s">
         <v>734</v>
       </c>
-      <c r="F75" s="21"/>
-      <c r="G75" s="21"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="26"/>
       <c r="H75" s="1" t="s">
         <v>735</v>
       </c>
@@ -10576,8 +10619,8 @@
       <c r="E76" s="5" t="s">
         <v>734</v>
       </c>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="26"/>
       <c r="H76" s="1" t="s">
         <v>739</v>
       </c>
@@ -10607,8 +10650,8 @@
       <c r="E77" s="5" t="s">
         <v>734</v>
       </c>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
       <c r="H77" s="1" t="s">
         <v>743</v>
       </c>
@@ -10634,8 +10677,8 @@
       <c r="E78" s="5" t="s">
         <v>734</v>
       </c>
-      <c r="F78" s="21"/>
-      <c r="G78" s="21"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="26"/>
       <c r="H78" s="1" t="s">
         <v>747</v>
       </c>
@@ -10656,8 +10699,8 @@
       <c r="E79" s="5" t="s">
         <v>734</v>
       </c>
-      <c r="F79" s="21"/>
-      <c r="G79" s="21"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="26"/>
       <c r="H79" s="1" t="s">
         <v>749</v>
       </c>
@@ -10677,8 +10720,8 @@
       <c r="E80" s="5" t="s">
         <v>734</v>
       </c>
-      <c r="F80" s="21"/>
-      <c r="G80" s="21"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="26"/>
       <c r="H80" s="1" t="s">
         <v>751</v>
       </c>
@@ -10698,8 +10741,8 @@
       <c r="E81" s="5" t="s">
         <v>734</v>
       </c>
-      <c r="F81" s="21"/>
-      <c r="G81" s="21"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="26"/>
       <c r="H81" s="1" t="s">
         <v>753</v>
       </c>
@@ -10719,8 +10762,8 @@
       <c r="E82" s="5" t="s">
         <v>734</v>
       </c>
-      <c r="F82" s="21"/>
-      <c r="G82" s="21"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="26"/>
       <c r="H82" s="1" t="s">
         <v>755</v>
       </c>
@@ -10744,8 +10787,8 @@
       <c r="E83" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="F83" s="21"/>
-      <c r="G83" s="21"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="26"/>
       <c r="H83" s="1" t="s">
         <v>758</v>
       </c>
@@ -10775,8 +10818,8 @@
       <c r="E84" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="F84" s="21"/>
-      <c r="G84" s="21"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="26"/>
       <c r="H84" s="1" t="s">
         <v>762</v>
       </c>
@@ -10806,8 +10849,8 @@
       <c r="E85" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="F85" s="21"/>
-      <c r="G85" s="21"/>
+      <c r="F85" s="26"/>
+      <c r="G85" s="26"/>
       <c r="H85" s="1" t="s">
         <v>766</v>
       </c>
@@ -10833,8 +10876,8 @@
       <c r="E86" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="F86" s="21"/>
-      <c r="G86" s="21"/>
+      <c r="F86" s="26"/>
+      <c r="G86" s="26"/>
       <c r="H86" s="1" t="s">
         <v>770</v>
       </c>
@@ -10856,8 +10899,8 @@
       <c r="E87" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="F87" s="21"/>
-      <c r="G87" s="21"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="26"/>
       <c r="H87" s="1" t="s">
         <v>772</v>
       </c>
@@ -10879,8 +10922,8 @@
       <c r="E88" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="F88" s="21"/>
-      <c r="G88" s="21"/>
+      <c r="F88" s="26"/>
+      <c r="G88" s="26"/>
       <c r="H88" s="1" t="s">
         <v>774</v>
       </c>
@@ -10902,8 +10945,8 @@
       <c r="E89" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="F89" s="21"/>
-      <c r="G89" s="21"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="26"/>
       <c r="H89" s="1" t="s">
         <v>776</v>
       </c>
@@ -10925,8 +10968,8 @@
       <c r="E90" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="F90" s="21"/>
-      <c r="G90" s="21"/>
+      <c r="F90" s="26"/>
+      <c r="G90" s="26"/>
       <c r="H90" s="1" t="s">
         <v>778</v>
       </c>
@@ -10952,10 +10995,10 @@
       <c r="E91" s="5" t="s">
         <v>780</v>
       </c>
-      <c r="F91" s="21" t="s">
+      <c r="F91" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="G91" s="21" t="s">
+      <c r="G91" s="26" t="s">
         <v>112</v>
       </c>
       <c r="H91" s="1" t="s">
@@ -10987,8 +11030,8 @@
       <c r="E92" s="5" t="s">
         <v>780</v>
       </c>
-      <c r="F92" s="21"/>
-      <c r="G92" s="21"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26"/>
       <c r="H92" s="1" t="s">
         <v>785</v>
       </c>
@@ -11018,8 +11061,8 @@
       <c r="E93" s="5" t="s">
         <v>780</v>
       </c>
-      <c r="F93" s="21"/>
-      <c r="G93" s="21"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="26"/>
       <c r="H93" s="1" t="s">
         <v>788</v>
       </c>
@@ -11049,8 +11092,8 @@
       <c r="E94" s="5" t="s">
         <v>780</v>
       </c>
-      <c r="F94" s="21"/>
-      <c r="G94" s="21"/>
+      <c r="F94" s="26"/>
+      <c r="G94" s="26"/>
       <c r="H94" s="1" t="s">
         <v>792</v>
       </c>
@@ -11078,8 +11121,8 @@
       <c r="E95" s="5" t="s">
         <v>780</v>
       </c>
-      <c r="F95" s="21"/>
-      <c r="G95" s="21"/>
+      <c r="F95" s="26"/>
+      <c r="G95" s="26"/>
       <c r="H95" s="1" t="s">
         <v>796</v>
       </c>
@@ -11105,8 +11148,8 @@
       <c r="E96" s="5" t="s">
         <v>780</v>
       </c>
-      <c r="F96" s="21"/>
-      <c r="G96" s="21"/>
+      <c r="F96" s="26"/>
+      <c r="G96" s="26"/>
       <c r="H96" s="1" t="s">
         <v>799</v>
       </c>
@@ -11128,8 +11171,8 @@
       <c r="E97" s="5" t="s">
         <v>780</v>
       </c>
-      <c r="F97" s="21"/>
-      <c r="G97" s="21"/>
+      <c r="F97" s="26"/>
+      <c r="G97" s="26"/>
       <c r="H97" s="1" t="s">
         <v>801</v>
       </c>
@@ -11151,8 +11194,8 @@
       <c r="E98" s="5" t="s">
         <v>780</v>
       </c>
-      <c r="F98" s="21"/>
-      <c r="G98" s="21"/>
+      <c r="F98" s="26"/>
+      <c r="G98" s="26"/>
       <c r="H98" s="1" t="s">
         <v>803</v>
       </c>
@@ -11178,10 +11221,10 @@
       <c r="E99" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="F99" s="21" t="s">
+      <c r="F99" s="26" t="s">
         <v>805</v>
       </c>
-      <c r="G99" s="21" t="s">
+      <c r="G99" s="26" t="s">
         <v>112</v>
       </c>
       <c r="H99" s="1" t="s">
@@ -11213,8 +11256,8 @@
       <c r="E100" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="F100" s="21"/>
-      <c r="G100" s="21"/>
+      <c r="F100" s="26"/>
+      <c r="G100" s="26"/>
       <c r="H100" s="1" t="s">
         <v>810</v>
       </c>
@@ -11244,8 +11287,8 @@
       <c r="E101" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="F101" s="21"/>
-      <c r="G101" s="21"/>
+      <c r="F101" s="26"/>
+      <c r="G101" s="26"/>
       <c r="H101" s="1" t="s">
         <v>814</v>
       </c>
@@ -11271,8 +11314,8 @@
       <c r="E102" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="F102" s="21"/>
-      <c r="G102" s="21"/>
+      <c r="F102" s="26"/>
+      <c r="G102" s="26"/>
       <c r="H102" s="1" t="s">
         <v>818</v>
       </c>
@@ -11294,8 +11337,8 @@
       <c r="E103" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="F103" s="21"/>
-      <c r="G103" s="21"/>
+      <c r="F103" s="26"/>
+      <c r="G103" s="26"/>
       <c r="H103" s="1" t="s">
         <v>820</v>
       </c>
@@ -11317,8 +11360,8 @@
       <c r="E104" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="F104" s="21"/>
-      <c r="G104" s="21"/>
+      <c r="F104" s="26"/>
+      <c r="G104" s="26"/>
       <c r="H104" s="1" t="s">
         <v>822</v>
       </c>
@@ -11340,8 +11383,8 @@
       <c r="E105" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="F105" s="21"/>
-      <c r="G105" s="21"/>
+      <c r="F105" s="26"/>
+      <c r="G105" s="26"/>
       <c r="H105" s="1" t="s">
         <v>824</v>
       </c>
@@ -11363,8 +11406,8 @@
       <c r="E106" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="F106" s="21"/>
-      <c r="G106" s="21"/>
+      <c r="F106" s="26"/>
+      <c r="G106" s="26"/>
       <c r="H106" s="1" t="s">
         <v>826</v>
       </c>

--- a/联机信号-0331.xlsx
+++ b/联机信号-0331.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\GIT储存库\PLC-mitsubishielectric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4C8AA0-0B42-4769-95B2-4CB800348C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B694499-D1FD-41E4-B22D-BC1342906AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="330" windowWidth="14040" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1770" yWindow="8445" windowWidth="18045" windowHeight="10875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="222联机信号" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="780">
   <si>
     <t>222联机信号表</t>
   </si>
@@ -1635,9 +1635,6 @@
     <t>最终清洗→设备正常</t>
   </si>
   <si>
-    <t>Y1000</t>
-  </si>
-  <si>
     <t>设备正常→最终清洗</t>
   </si>
   <si>
@@ -1683,9 +1680,6 @@
     <t>最终压装抽检→设备正常</t>
   </si>
   <si>
-    <t>Y1020</t>
-  </si>
-  <si>
     <t>抽检工位→请求信号</t>
   </si>
   <si>
@@ -1716,9 +1710,6 @@
     <t>压装存料1→设备正常</t>
   </si>
   <si>
-    <t>Y1040</t>
-  </si>
-  <si>
     <t>设备正常→压装存料1</t>
   </si>
   <si>
@@ -1749,24 +1740,12 @@
     <t>工件取料完成→压装存料1</t>
   </si>
   <si>
-    <t>Y1045</t>
-  </si>
-  <si>
-    <t>Y1046</t>
-  </si>
-  <si>
-    <t>Y1047</t>
-  </si>
-  <si>
     <t>最终压装存料2</t>
   </si>
   <si>
     <t>压装存料2→设备正常</t>
   </si>
   <si>
-    <t>Y1060</t>
-  </si>
-  <si>
     <t>设备正常→压装存料2</t>
   </si>
   <si>
@@ -1791,721 +1770,169 @@
     <t>工件取料中→压装存料2</t>
   </si>
   <si>
-    <t>Y1064</t>
-  </si>
-  <si>
     <t>工件取料完成→压装存料2</t>
   </si>
   <si>
-    <t>Y1065</t>
-  </si>
-  <si>
-    <t>Y1066</t>
-  </si>
-  <si>
-    <t>Y1067</t>
-  </si>
-  <si>
     <t>涂胶工位</t>
   </si>
   <si>
-    <t>X1100</t>
-  </si>
-  <si>
     <t>涂胶工位→设备正常</t>
   </si>
   <si>
-    <t>Y1100</t>
-  </si>
-  <si>
     <t>设备正常→涂胶工位</t>
   </si>
   <si>
     <t>涂胶工位屏蔽</t>
   </si>
   <si>
-    <t>X1101</t>
-  </si>
-  <si>
-    <t>涂胶工位→工位屏蔽</t>
-  </si>
-  <si>
-    <t>Y1101</t>
-  </si>
-  <si>
     <t>工件放置中→涂胶工位</t>
   </si>
   <si>
     <t>涂胶工位工件有无</t>
   </si>
   <si>
-    <t>X1102</t>
-  </si>
-  <si>
     <t>涂胶工位→工件有无</t>
   </si>
   <si>
-    <t>Y1102</t>
-  </si>
-  <si>
     <t>工件放置完成→涂胶工位</t>
   </si>
   <si>
-    <t>X1103</t>
-  </si>
-  <si>
     <t>涂胶工位→取料允许信号</t>
   </si>
   <si>
-    <t>Y1103</t>
-  </si>
-  <si>
     <t>工件取料中→涂胶工位</t>
   </si>
   <si>
-    <t>X1104</t>
-  </si>
-  <si>
     <t>涂胶工位→放料允许信号</t>
   </si>
   <si>
-    <t>Y1104</t>
-  </si>
-  <si>
     <t>工件取料完成→涂胶工位</t>
   </si>
   <si>
-    <t>X1105</t>
-  </si>
-  <si>
     <t>涂胶工位→工件OK</t>
   </si>
   <si>
-    <t>Y1105</t>
-  </si>
-  <si>
-    <t>X1106</t>
-  </si>
-  <si>
     <t>涂胶工位→工件NG</t>
   </si>
   <si>
-    <t>Y1106</t>
-  </si>
-  <si>
-    <t>X1107</t>
-  </si>
-  <si>
-    <t>Y1107</t>
-  </si>
-  <si>
     <t>压装工位</t>
   </si>
   <si>
-    <t>X1120</t>
-  </si>
-  <si>
     <t>压装工位→设备正常</t>
   </si>
   <si>
-    <t>Y1120</t>
-  </si>
-  <si>
     <t>设备正常→压装工位</t>
   </si>
   <si>
     <t>压装工位工件有无</t>
   </si>
   <si>
-    <t>X1121</t>
-  </si>
-  <si>
     <t>压装工位→工件有无</t>
   </si>
   <si>
-    <t>Y1121</t>
-  </si>
-  <si>
     <t>工件放置中→压装工位</t>
   </si>
   <si>
-    <t>X1122</t>
-  </si>
-  <si>
     <t>压装工位→取料允许信号</t>
   </si>
   <si>
-    <t>Y1122</t>
-  </si>
-  <si>
     <t>工件放置完成→压装工位</t>
   </si>
   <si>
-    <t>X1123</t>
-  </si>
-  <si>
-    <t>压装工位→放料允许信号</t>
-  </si>
-  <si>
-    <t>Y1123</t>
-  </si>
-  <si>
     <t>工件取料中→压装工位</t>
   </si>
   <si>
-    <t>X1124</t>
-  </si>
-  <si>
     <t>压装工位→工件OK</t>
   </si>
   <si>
-    <t>Y1124</t>
-  </si>
-  <si>
     <t>工件取料完成→压装工位</t>
   </si>
   <si>
-    <t>X1125</t>
-  </si>
-  <si>
     <t>压装工位→工件NG</t>
   </si>
   <si>
-    <t>Y1125</t>
-  </si>
-  <si>
-    <t>X1126</t>
-  </si>
-  <si>
-    <t>Y1126</t>
-  </si>
-  <si>
-    <t>X1127</t>
-  </si>
-  <si>
-    <t>Y1127</t>
-  </si>
-  <si>
     <t>压装NG件下料点</t>
   </si>
   <si>
-    <t>X1140</t>
-  </si>
-  <si>
     <t>压装NG下料点→设备正常</t>
   </si>
   <si>
-    <t>Y1140</t>
-  </si>
-  <si>
     <t>设备正常→压装NG下料点</t>
   </si>
   <si>
-    <t>X1141</t>
-  </si>
-  <si>
     <t>压装NG下料点→工位放料允许</t>
   </si>
   <si>
-    <t>Y1141</t>
-  </si>
-  <si>
     <t>工件放置中→压装NG下料点</t>
   </si>
   <si>
-    <t>X1142</t>
-  </si>
-  <si>
     <t>压装NG下料点→工件有无信号</t>
   </si>
   <si>
-    <t>Y1142</t>
-  </si>
-  <si>
     <t>工件放置完成→压装NG下料点</t>
   </si>
   <si>
-    <t>X1143</t>
-  </si>
-  <si>
-    <t>Y1143</t>
-  </si>
-  <si>
-    <t>X1144</t>
-  </si>
-  <si>
-    <t>Y1144</t>
-  </si>
-  <si>
-    <t>X1145</t>
-  </si>
-  <si>
-    <t>Y1145</t>
-  </si>
-  <si>
-    <t>X1146</t>
-  </si>
-  <si>
-    <t>Y1146</t>
-  </si>
-  <si>
-    <t>X1147</t>
-  </si>
-  <si>
-    <t>Y1147</t>
-  </si>
-  <si>
     <t>最终试漏标准件</t>
   </si>
   <si>
     <t>试漏机</t>
   </si>
   <si>
-    <t>X1160</t>
-  </si>
-  <si>
-    <t>试漏标准件位→设备正常</t>
-  </si>
-  <si>
-    <t>Y1160</t>
-  </si>
-  <si>
-    <t>设备正常→试漏标准件位</t>
-  </si>
-  <si>
-    <t>X1161</t>
-  </si>
-  <si>
-    <t>试漏标准件位→设备点检开始</t>
-  </si>
-  <si>
-    <t>Y1161</t>
-  </si>
-  <si>
-    <t>工件放置中→试漏标准件位</t>
-  </si>
-  <si>
-    <t>X1162</t>
-  </si>
-  <si>
-    <t>试漏标准件位→工位工件有无</t>
-  </si>
-  <si>
-    <t>Y1162</t>
-  </si>
-  <si>
-    <t>工件放置完成→试漏标准件位</t>
-  </si>
-  <si>
-    <t>X1163</t>
-  </si>
-  <si>
-    <t>试漏标准件位→取料允许信号</t>
-  </si>
-  <si>
-    <t>Y1163</t>
-  </si>
-  <si>
-    <t>工件取料中→试漏标准件位</t>
-  </si>
-  <si>
-    <t>X1164</t>
-  </si>
-  <si>
-    <t>试漏标准件位→放料允许信号</t>
-  </si>
-  <si>
-    <t>Y1164</t>
-  </si>
-  <si>
-    <t>工件取料完成→试漏标准件位</t>
-  </si>
-  <si>
-    <t>X1165</t>
-  </si>
-  <si>
-    <t>Y1165</t>
-  </si>
-  <si>
-    <t>X1166</t>
-  </si>
-  <si>
-    <t>Y1166</t>
-  </si>
-  <si>
-    <t>X1167</t>
-  </si>
-  <si>
-    <t>Y1167</t>
-  </si>
-  <si>
     <t>最终试漏工位</t>
   </si>
   <si>
-    <t>X1200</t>
-  </si>
-  <si>
-    <t>最终试漏位→设备正常</t>
-  </si>
-  <si>
-    <t>Y1200</t>
-  </si>
-  <si>
-    <t>设备正常→最终试漏位</t>
-  </si>
-  <si>
     <t>最终试漏工位工件有无</t>
   </si>
   <si>
-    <t>X1201</t>
-  </si>
-  <si>
-    <t>最终试漏位→工件有无</t>
-  </si>
-  <si>
-    <t>Y1201</t>
-  </si>
-  <si>
-    <t>工件放置中→最终试漏位</t>
-  </si>
-  <si>
-    <t>X1202</t>
-  </si>
-  <si>
-    <t>最终试漏位→取料允许信号</t>
-  </si>
-  <si>
-    <t>Y1202</t>
-  </si>
-  <si>
-    <t>工件放置完成→最终试漏位</t>
-  </si>
-  <si>
-    <t>X1203</t>
-  </si>
-  <si>
-    <t>最终试漏位→放料允许信号</t>
-  </si>
-  <si>
-    <t>Y1203</t>
-  </si>
-  <si>
-    <t>工件取料中→最终试漏位</t>
-  </si>
-  <si>
-    <t>X1204</t>
-  </si>
-  <si>
-    <t>最终试漏位→工件OK</t>
-  </si>
-  <si>
-    <t>Y1204</t>
-  </si>
-  <si>
-    <t>工件取料完成→最终试漏位</t>
-  </si>
-  <si>
-    <t>X1205</t>
-  </si>
-  <si>
-    <t>最终试漏位→工件NG</t>
-  </si>
-  <si>
-    <t>Y1205</t>
-  </si>
-  <si>
-    <t>X1206</t>
-  </si>
-  <si>
-    <t>Y1206</t>
-  </si>
-  <si>
-    <t>X1207</t>
-  </si>
-  <si>
-    <t>Y1207</t>
-  </si>
-  <si>
     <t>最终试漏NG件</t>
   </si>
   <si>
-    <t>X1220</t>
-  </si>
-  <si>
-    <t>试漏NG下料点→设备正常</t>
-  </si>
-  <si>
-    <t>Y1220</t>
-  </si>
-  <si>
-    <t>设备正常→试漏NG下料点</t>
-  </si>
-  <si>
-    <t>X1221</t>
-  </si>
-  <si>
-    <t>试漏NG下料点→工位放料允许</t>
-  </si>
-  <si>
-    <t>Y1221</t>
-  </si>
-  <si>
-    <t>工件放置中→试漏NG下料点</t>
-  </si>
-  <si>
-    <t>X1222</t>
-  </si>
-  <si>
-    <t>试漏NG下料点→工件有无信号</t>
-  </si>
-  <si>
-    <t>Y1222</t>
-  </si>
-  <si>
-    <t>工件放置完成→试漏NG下料点</t>
-  </si>
-  <si>
-    <t>X1223</t>
-  </si>
-  <si>
-    <t>Y1223</t>
-  </si>
-  <si>
-    <t>X1224</t>
-  </si>
-  <si>
-    <t>Y1224</t>
-  </si>
-  <si>
-    <t>X1225</t>
-  </si>
-  <si>
-    <t>Y1225</t>
-  </si>
-  <si>
-    <t>X1226</t>
-  </si>
-  <si>
-    <t>Y1226</t>
-  </si>
-  <si>
-    <t>X1227</t>
-  </si>
-  <si>
-    <t>Y1227</t>
-  </si>
-  <si>
     <t>最终试漏再投入</t>
   </si>
   <si>
-    <t>X1240</t>
-  </si>
-  <si>
-    <t>试漏再投入→设备正常</t>
-  </si>
-  <si>
-    <t>Y1240</t>
-  </si>
-  <si>
-    <t>设备正常→试漏再投入</t>
-  </si>
-  <si>
-    <t>X1241</t>
-  </si>
-  <si>
-    <t>试漏再投入→工件有无信号</t>
-  </si>
-  <si>
-    <t>Y1241</t>
-  </si>
-  <si>
-    <t>工件取料中→试漏再投入</t>
-  </si>
-  <si>
-    <t>X1242</t>
-  </si>
-  <si>
-    <t>试漏再投入→取料允许信号</t>
-  </si>
-  <si>
-    <t>Y1242</t>
-  </si>
-  <si>
-    <t>工件取料完成→试漏再投入</t>
-  </si>
-  <si>
-    <t>X1243</t>
-  </si>
-  <si>
-    <t>Y1243</t>
-  </si>
-  <si>
-    <t>X1244</t>
-  </si>
-  <si>
-    <t>Y1244</t>
-  </si>
-  <si>
-    <t>X1245</t>
-  </si>
-  <si>
-    <t>Y1245</t>
-  </si>
-  <si>
-    <t>X1246</t>
-  </si>
-  <si>
-    <t>Y1246</t>
-  </si>
-  <si>
-    <t>X1247</t>
-  </si>
-  <si>
-    <t>Y1247</t>
-  </si>
-  <si>
     <t>存储上下料</t>
   </si>
   <si>
-    <t>X1260</t>
-  </si>
-  <si>
     <t>试漏OK存储位→设备正常</t>
   </si>
   <si>
-    <t>Y1260</t>
-  </si>
-  <si>
     <t>设备正常→试漏OK存储位</t>
   </si>
   <si>
-    <t>X1261</t>
-  </si>
-  <si>
-    <t>Y1261</t>
-  </si>
-  <si>
     <t>工件放置中→试漏OK存储位</t>
   </si>
   <si>
-    <t>X1262</t>
-  </si>
-  <si>
     <t>试漏OK存储位→取料允许信号</t>
   </si>
   <si>
-    <t>Y1262</t>
-  </si>
-  <si>
     <t>工件放置完成→试漏OK存储位</t>
   </si>
   <si>
-    <t>X1263</t>
-  </si>
-  <si>
     <t>试漏OK存储位→放料允许信号</t>
   </si>
   <si>
-    <t>Y1263</t>
-  </si>
-  <si>
     <t>工件取料中→试漏OK存储位</t>
   </si>
   <si>
-    <t>X1264</t>
-  </si>
-  <si>
-    <t>Y1264</t>
-  </si>
-  <si>
     <t>工件取料完成→试漏OK存储位</t>
   </si>
   <si>
-    <t>X1265</t>
-  </si>
-  <si>
-    <t>Y1265</t>
-  </si>
-  <si>
-    <t>X1266</t>
-  </si>
-  <si>
-    <t>Y1266</t>
-  </si>
-  <si>
-    <t>X1267</t>
-  </si>
-  <si>
-    <t>Y1267</t>
-  </si>
-  <si>
     <t>下料设备</t>
   </si>
   <si>
-    <t>X1300</t>
-  </si>
-  <si>
     <t>合格品下料位→设备正常</t>
   </si>
   <si>
-    <t>Y1300</t>
-  </si>
-  <si>
-    <t>设备正常→合格品下料位</t>
-  </si>
-  <si>
-    <t>X1301</t>
-  </si>
-  <si>
     <t>合格品下料位→允许放料</t>
   </si>
   <si>
-    <t>Y1301</t>
-  </si>
-  <si>
     <t>工件放置中→合格品下料位</t>
   </si>
   <si>
-    <t>X1302</t>
-  </si>
-  <si>
     <t>合格品下料位→检测工件有无</t>
   </si>
   <si>
-    <t>Y1302</t>
-  </si>
-  <si>
     <t>工件放料完成→合格品下料位</t>
-  </si>
-  <si>
-    <t>X1303</t>
-  </si>
-  <si>
-    <t>Y1303</t>
-  </si>
-  <si>
-    <t>X1304</t>
-  </si>
-  <si>
-    <t>Y1304</t>
-  </si>
-  <si>
-    <t>X1305</t>
-  </si>
-  <si>
-    <t>Y1305</t>
-  </si>
-  <si>
-    <t>X1306</t>
-  </si>
-  <si>
-    <t>Y1306</t>
-  </si>
-  <si>
-    <t>X1307</t>
-  </si>
-  <si>
-    <t>Y1307</t>
   </si>
   <si>
     <t>X1090</t>
@@ -2599,14 +2026,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>X280</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y680</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>存储工位→工件有无信号取料</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2640,13 +2059,7 @@
     <t>X101A</t>
   </si>
   <si>
-    <t>X102A</t>
-  </si>
-  <si>
     <t>X101B</t>
-  </si>
-  <si>
-    <t>X102C</t>
   </si>
   <si>
     <t>X100B</t>
@@ -2777,30 +2190,6 @@
     <t>Y101F</t>
   </si>
   <si>
-    <t>Y1028</t>
-  </si>
-  <si>
-    <t>Y1029</t>
-  </si>
-  <si>
-    <t>Y102A</t>
-  </si>
-  <si>
-    <t>Y102B</t>
-  </si>
-  <si>
-    <t>Y102C</t>
-  </si>
-  <si>
-    <t>Y102D</t>
-  </si>
-  <si>
-    <t>Y102E</t>
-  </si>
-  <si>
-    <t>Y102F</t>
-  </si>
-  <si>
     <t>Y1020</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2847,24 +2236,6 @@
     <t>X101F</t>
   </si>
   <si>
-    <t>X1028</t>
-  </si>
-  <si>
-    <t>X1029</t>
-  </si>
-  <si>
-    <t>X102B</t>
-  </si>
-  <si>
-    <t>X102D</t>
-  </si>
-  <si>
-    <t>X102E</t>
-  </si>
-  <si>
-    <t>X102F</t>
-  </si>
-  <si>
     <t>试漏单元异常</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2898,6 +2269,175 @@
   </si>
   <si>
     <t>工检有无</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>X200</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y600</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>X1010</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y1020</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>X1000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y1000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y1010</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>X1020</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>X1030</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>X1032</t>
+  </si>
+  <si>
+    <t>X1033</t>
+  </si>
+  <si>
+    <t>X1034</t>
+  </si>
+  <si>
+    <t>X1035</t>
+  </si>
+  <si>
+    <t>X1036</t>
+  </si>
+  <si>
+    <t>Y1030</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>X1040</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y1040</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>X1050</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y1050</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>X1051</t>
+  </si>
+  <si>
+    <t>X1052</t>
+  </si>
+  <si>
+    <t>X1060</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>X1068</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>X1069</t>
+  </si>
+  <si>
+    <t>X106A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>X106B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y1068</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y1069</t>
+  </si>
+  <si>
+    <t>Y106A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y106B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>X1070</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>X1078</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y1078</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y1079</t>
+  </si>
+  <si>
+    <t>X1080</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>X1081</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>X1090</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y1090</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>X10A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y10A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y1060</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y1070</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>X1060</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y1064</t>
+  </si>
+  <si>
+    <t>压装工位→放料允许信号</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3094,7 +2634,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3163,6 +2703,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3472,8 +3018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G43" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+    <sheetView topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3492,15 +3038,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
       <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3512,14 +3058,14 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="25"/>
+      <c r="D2" s="27"/>
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
@@ -3546,10 +3092,10 @@
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="28" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="7" t="s">
@@ -3581,8 +3127,8 @@
       <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="7" t="s">
         <v>19</v>
       </c>
@@ -3612,8 +3158,8 @@
       <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
       <c r="H5" s="7" t="s">
         <v>25</v>
       </c>
@@ -3639,8 +3185,8 @@
       <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
       <c r="H6" s="7" t="s">
         <v>29</v>
       </c>
@@ -3666,8 +3212,8 @@
       <c r="E7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
       <c r="H7" s="7" t="s">
         <v>33</v>
       </c>
@@ -3693,8 +3239,8 @@
       <c r="E8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
       <c r="H8" s="7" t="s">
         <v>37</v>
       </c>
@@ -3720,8 +3266,8 @@
       <c r="E9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
       <c r="H9" s="7" t="s">
         <v>41</v>
       </c>
@@ -3747,8 +3293,8 @@
       <c r="E10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
       <c r="H10" s="7" t="s">
         <v>45</v>
       </c>
@@ -3778,20 +3324,20 @@
       <c r="E11" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="31" t="s">
         <v>112</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>856</v>
+        <v>777</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>138</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>857</v>
+        <v>775</v>
       </c>
       <c r="K11" s="14" t="s">
         <v>140</v>
@@ -3813,16 +3359,16 @@
       <c r="E12" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
       <c r="H12" s="16" t="s">
-        <v>358</v>
+        <v>197</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>858</v>
+        <v>665</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>359</v>
+        <v>576</v>
       </c>
       <c r="K12" s="14" t="s">
         <v>143</v>
@@ -3844,16 +3390,16 @@
       <c r="E13" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
       <c r="H13" s="16" t="s">
-        <v>363</v>
+        <v>201</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>859</v>
+        <v>666</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>364</v>
+        <v>578</v>
       </c>
       <c r="K13" s="14" t="s">
         <v>147</v>
@@ -3875,16 +3421,16 @@
       <c r="E14" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
       <c r="H14" s="16" t="s">
-        <v>368</v>
+        <v>205</v>
       </c>
       <c r="I14" s="14" t="s">
         <v>145</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>369</v>
+        <v>580</v>
       </c>
       <c r="K14" s="14" t="s">
         <v>151</v>
@@ -3904,16 +3450,16 @@
       <c r="E15" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
       <c r="H15" s="16" t="s">
-        <v>373</v>
+        <v>209</v>
       </c>
       <c r="I15" s="14" t="s">
         <v>149</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>374</v>
+        <v>778</v>
       </c>
       <c r="K15" s="14" t="s">
         <v>154</v>
@@ -3931,8 +3477,8 @@
       <c r="E16" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="16" t="s">
         <v>378</v>
       </c>
@@ -3954,8 +3500,8 @@
       <c r="E17" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="16" t="s">
         <v>383</v>
       </c>
@@ -3977,8 +3523,8 @@
       <c r="E18" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
       <c r="H18" s="16" t="s">
         <v>388</v>
       </c>
@@ -3989,19 +3535,19 @@
       <c r="K18" s="14"/>
     </row>
     <row r="19" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
-        <v>938</v>
-      </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="32"/>
+      <c r="A19" s="32" t="s">
+        <v>729</v>
+      </c>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="34"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
@@ -4019,23 +3565,23 @@
       <c r="E20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="27" t="s">
-        <v>937</v>
+      <c r="G20" s="29" t="s">
+        <v>728</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>862</v>
+        <v>669</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>878</v>
+        <v>683</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>875</v>
+        <v>680</v>
       </c>
       <c r="K20" s="23" t="s">
-        <v>880</v>
+        <v>685</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -4054,19 +3600,19 @@
       <c r="E21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
       <c r="H21" s="19" t="s">
         <v>117</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>879</v>
+        <v>684</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K21" s="23" t="s">
-        <v>881</v>
+        <v>686</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -4085,16 +3631,16 @@
       <c r="E22" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
       <c r="H22" s="19" t="s">
         <v>121</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K22" s="23" t="s">
-        <v>882</v>
+        <v>687</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -4113,16 +3659,16 @@
       <c r="E23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
       <c r="H23" s="19" t="s">
         <v>125</v>
       </c>
       <c r="J23" s="19" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K23" s="23" t="s">
-        <v>883</v>
+        <v>688</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -4141,14 +3687,14 @@
       <c r="E24" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
       <c r="H24" s="19" t="s">
         <v>127</v>
       </c>
       <c r="I24" s="20"/>
       <c r="J24" s="19" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -4163,14 +3709,14 @@
       <c r="E25" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
       <c r="H25" s="19" t="s">
         <v>129</v>
       </c>
       <c r="I25" s="20"/>
       <c r="J25" s="19" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -4185,14 +3731,14 @@
       <c r="E26" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
       <c r="H26" s="19" t="s">
         <v>131</v>
       </c>
       <c r="I26" s="21"/>
       <c r="J26" s="19" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K26" s="22"/>
       <c r="M26" s="21"/>
@@ -4210,14 +3756,14 @@
       <c r="E27" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
       <c r="H27" s="19" t="s">
         <v>133</v>
       </c>
       <c r="I27" s="22"/>
       <c r="J27" s="19" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K27" s="21"/>
       <c r="M27" s="21"/>
@@ -4239,13 +3785,13 @@
       <c r="E28" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
       <c r="H28" s="19" t="s">
-        <v>863</v>
+        <v>670</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>876</v>
+        <v>681</v>
       </c>
       <c r="M28" s="21"/>
       <c r="N28" s="21"/>
@@ -4266,19 +3812,19 @@
       <c r="E29" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
       <c r="H29" s="19" t="s">
-        <v>864</v>
+        <v>671</v>
       </c>
       <c r="I29" s="23" t="s">
-        <v>890</v>
+        <v>695</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>877</v>
+        <v>682</v>
       </c>
       <c r="K29" s="23" t="s">
-        <v>894</v>
+        <v>699</v>
       </c>
       <c r="M29" s="21"/>
       <c r="N29" s="21"/>
@@ -4299,19 +3845,19 @@
       <c r="E30" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
       <c r="H30" s="19" t="s">
-        <v>865</v>
+        <v>672</v>
       </c>
       <c r="I30" s="23" t="s">
-        <v>891</v>
+        <v>696</v>
       </c>
       <c r="J30" s="19" t="s">
-        <v>884</v>
+        <v>689</v>
       </c>
       <c r="K30" s="23" t="s">
-        <v>895</v>
+        <v>700</v>
       </c>
       <c r="M30" s="21"/>
       <c r="N30" s="21"/>
@@ -4332,19 +3878,19 @@
       <c r="E31" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
       <c r="H31" s="19" t="s">
-        <v>870</v>
+        <v>675</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>892</v>
+        <v>697</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>885</v>
+        <v>690</v>
       </c>
       <c r="K31" s="23" t="s">
-        <v>896</v>
+        <v>701</v>
       </c>
       <c r="M31" s="21"/>
       <c r="N31" s="21"/>
@@ -4365,19 +3911,19 @@
       <c r="E32" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
       <c r="H32" s="19" t="s">
-        <v>871</v>
+        <v>676</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>893</v>
+        <v>698</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>886</v>
+        <v>691</v>
       </c>
       <c r="K32" s="23" t="s">
-        <v>897</v>
+        <v>702</v>
       </c>
       <c r="M32" s="21"/>
       <c r="N32" s="21"/>
@@ -4396,13 +3942,13 @@
       <c r="E33" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
       <c r="H33" s="19" t="s">
-        <v>872</v>
+        <v>677</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>887</v>
+        <v>692</v>
       </c>
       <c r="M33" s="21"/>
       <c r="N33" s="21"/>
@@ -4419,13 +3965,13 @@
       <c r="E34" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
       <c r="H34" s="19" t="s">
-        <v>873</v>
+        <v>678</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>888</v>
+        <v>693</v>
       </c>
       <c r="M34" s="21"/>
       <c r="N34" s="21"/>
@@ -4442,14 +3988,14 @@
       <c r="E35" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
       <c r="H35" s="19" t="s">
-        <v>874</v>
+        <v>679</v>
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="7" t="s">
-        <v>889</v>
+        <v>694</v>
       </c>
       <c r="K35" s="7"/>
       <c r="M35" s="21"/>
@@ -4471,10 +4017,10 @@
       <c r="E36" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
       <c r="H36" s="7" t="s">
-        <v>915</v>
+        <v>712</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>59</v>
@@ -4504,10 +4050,10 @@
       <c r="E37" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
       <c r="H37" s="7" t="s">
-        <v>916</v>
+        <v>713</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7" t="s">
@@ -4535,10 +4081,10 @@
       <c r="E38" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
       <c r="H38" s="7" t="s">
-        <v>917</v>
+        <v>714</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="7" t="s">
@@ -4560,10 +4106,10 @@
       <c r="E39" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
       <c r="H39" s="7" t="s">
-        <v>918</v>
+        <v>715</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="7" t="s">
@@ -4585,10 +4131,10 @@
       <c r="E40" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
       <c r="H40" s="7" t="s">
-        <v>919</v>
+        <v>716</v>
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
@@ -4610,10 +4156,10 @@
       <c r="E41" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
       <c r="H41" s="7" t="s">
-        <v>920</v>
+        <v>717</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
@@ -4635,10 +4181,10 @@
       <c r="E42" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
       <c r="H42" s="7" t="s">
-        <v>921</v>
+        <v>718</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
@@ -4660,10 +4206,10 @@
       <c r="E43" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
       <c r="H43" s="7" t="s">
-        <v>922</v>
+        <v>719</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="11" t="s">
@@ -4689,16 +4235,16 @@
       <c r="E44" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F44" s="26"/>
-      <c r="G44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="30"/>
       <c r="H44" s="9" t="s">
-        <v>923</v>
+        <v>720</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>72</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>898</v>
+        <v>703</v>
       </c>
       <c r="K44" s="4" t="s">
         <v>70</v>
@@ -4722,13 +4268,13 @@
       <c r="E45" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
       <c r="H45" s="9" t="s">
-        <v>924</v>
+        <v>721</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>899</v>
+        <v>704</v>
       </c>
       <c r="K45" s="4" t="s">
         <v>74</v>
@@ -4752,13 +4298,13 @@
       <c r="E46" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
       <c r="H46" s="9" t="s">
-        <v>866</v>
+        <v>673</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>900</v>
+        <v>705</v>
       </c>
       <c r="M46" s="21"/>
       <c r="N46" s="21"/>
@@ -4775,13 +4321,13 @@
       <c r="E47" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
       <c r="H47" s="9" t="s">
-        <v>868</v>
+        <v>674</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>901</v>
+        <v>706</v>
       </c>
       <c r="M47" s="21"/>
       <c r="N47" s="21"/>
@@ -4798,13 +4344,13 @@
       <c r="E48" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
       <c r="H48" s="9" t="s">
-        <v>925</v>
+        <v>722</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>902</v>
+        <v>707</v>
       </c>
       <c r="M48" s="21"/>
       <c r="N48" s="21"/>
@@ -4821,13 +4367,13 @@
       <c r="E49" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
       <c r="H49" s="9" t="s">
-        <v>926</v>
+        <v>723</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>903</v>
+        <v>708</v>
       </c>
       <c r="M49" s="21"/>
       <c r="N49" s="21"/>
@@ -4844,13 +4390,13 @@
       <c r="E50" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
       <c r="H50" s="9" t="s">
-        <v>927</v>
+        <v>724</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>904</v>
+        <v>709</v>
       </c>
       <c r="M50" s="21"/>
       <c r="N50" s="21"/>
@@ -4867,110 +4413,110 @@
       <c r="E51" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
       <c r="H51" s="9" t="s">
-        <v>928</v>
+        <v>725</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>905</v>
+        <v>710</v>
       </c>
       <c r="M51" s="21"/>
       <c r="N51" s="21"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
       <c r="H52" s="9" t="s">
         <v>137</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>935</v>
+        <v>726</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>914</v>
+        <v>711</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>939</v>
+        <v>730</v>
       </c>
       <c r="M52" s="21"/>
       <c r="N52" s="21"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
       <c r="H53" s="9" t="s">
         <v>141</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>936</v>
+        <v>727</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="M53" s="21"/>
       <c r="N53" s="21"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
       <c r="H54" s="9" t="s">
         <v>144</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="M54" s="21"/>
       <c r="N54" s="21"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
       <c r="H55" s="9" t="s">
         <v>148</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
       <c r="H56" s="9" t="s">
         <v>152</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
       <c r="H57" s="9" t="s">
         <v>155</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
       <c r="H58" s="9" t="s">
         <v>157</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
       <c r="H59" s="10" t="s">
         <v>159</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
@@ -4989,12 +4535,9 @@
       <c r="E60" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H60" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>906</v>
-      </c>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="K60" s="12"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
@@ -5012,12 +4555,9 @@
       <c r="E61" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H61" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>907</v>
-      </c>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="K61" s="5"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
@@ -5035,12 +4575,9 @@
       <c r="E62" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H62" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>908</v>
-      </c>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="K62" s="5"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
@@ -5054,12 +4591,7 @@
       <c r="E63" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H63" s="1" t="s">
-        <v>931</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>909</v>
-      </c>
+      <c r="H63" s="12"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
@@ -5073,12 +4605,6 @@
       <c r="E64" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H64" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>910</v>
-      </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
@@ -5092,12 +4618,6 @@
       <c r="E65" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H65" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>911</v>
-      </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
@@ -5111,12 +4631,6 @@
       <c r="E66" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H66" s="1" t="s">
-        <v>933</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>912</v>
-      </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
@@ -5130,12 +4644,6 @@
       <c r="E67" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H67" s="1" t="s">
-        <v>934</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>913</v>
-      </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M68" s="5" t="s">
@@ -5149,10 +4657,10 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H71" s="12" t="s">
-        <v>940</v>
+        <v>731</v>
       </c>
       <c r="J71" s="12" t="s">
-        <v>941</v>
+        <v>732</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
@@ -5160,10 +4668,10 @@
         <v>168</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>942</v>
+        <v>733</v>
       </c>
       <c r="J72" s="12" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="K72" s="5" t="s">
         <v>80</v>
@@ -5174,10 +4682,10 @@
         <v>172</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>943</v>
+        <v>734</v>
       </c>
       <c r="J73" s="12" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="K73" s="5" t="s">
         <v>83</v>
@@ -5225,15 +4733,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
       <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5245,14 +4753,14 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="25"/>
+      <c r="D2" s="27"/>
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
@@ -5279,10 +4787,10 @@
       <c r="E3" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="28" t="s">
         <v>112</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -5314,8 +4822,8 @@
       <c r="E4" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="1" t="s">
         <v>117</v>
       </c>
@@ -5345,8 +4853,8 @@
       <c r="E5" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
       <c r="H5" s="1" t="s">
         <v>121</v>
       </c>
@@ -5372,8 +4880,8 @@
       <c r="E6" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
       <c r="H6" s="1" t="s">
         <v>125</v>
       </c>
@@ -5395,8 +4903,8 @@
       <c r="E7" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
       <c r="H7" s="1" t="s">
         <v>127</v>
       </c>
@@ -5418,8 +4926,8 @@
       <c r="E8" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
       <c r="H8" s="1" t="s">
         <v>129</v>
       </c>
@@ -5441,8 +4949,8 @@
       <c r="E9" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
       <c r="H9" s="1" t="s">
         <v>131</v>
       </c>
@@ -5464,8 +4972,8 @@
       <c r="E10" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
       <c r="H10" s="1" t="s">
         <v>133</v>
       </c>
@@ -5491,10 +4999,10 @@
       <c r="E11" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="28" t="s">
         <v>112</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -5526,13 +5034,13 @@
       <c r="E12" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
       <c r="H12" s="1" t="s">
         <v>141</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>858</v>
+        <v>665</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>142</v>
@@ -5557,13 +5065,13 @@
       <c r="E13" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
       <c r="H13" s="1" t="s">
         <v>144</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>859</v>
+        <v>666</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>146</v>
@@ -5588,8 +5096,8 @@
       <c r="E14" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
       <c r="H14" s="1" t="s">
         <v>148</v>
       </c>
@@ -5617,8 +5125,8 @@
       <c r="E15" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
       <c r="H15" s="1" t="s">
         <v>152</v>
       </c>
@@ -5644,8 +5152,8 @@
       <c r="E16" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
       <c r="H16" s="1" t="s">
         <v>155</v>
       </c>
@@ -5667,8 +5175,8 @@
       <c r="E17" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
       <c r="H17" s="1" t="s">
         <v>157</v>
       </c>
@@ -5690,8 +5198,8 @@
       <c r="E18" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
       <c r="H18" s="1" t="s">
         <v>159</v>
       </c>
@@ -5717,10 +5225,10 @@
       <c r="E19" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="G19" s="28" t="s">
         <v>112</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -5752,8 +5260,8 @@
       <c r="E20" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
       <c r="H20" s="1" t="s">
         <v>168</v>
       </c>
@@ -5783,8 +5291,8 @@
       <c r="E21" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
       <c r="H21" s="1" t="s">
         <v>172</v>
       </c>
@@ -5814,8 +5322,8 @@
       <c r="E22" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
       <c r="H22" s="1" t="s">
         <v>176</v>
       </c>
@@ -5845,8 +5353,8 @@
       <c r="E23" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
       <c r="H23" s="1" t="s">
         <v>180</v>
       </c>
@@ -5874,8 +5382,8 @@
       <c r="E24" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
       <c r="H24" s="1" t="s">
         <v>184</v>
       </c>
@@ -5899,8 +5407,8 @@
       <c r="E25" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
       <c r="H25" s="1" t="s">
         <v>187</v>
       </c>
@@ -5922,8 +5430,8 @@
       <c r="E26" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
       <c r="H26" s="1" t="s">
         <v>189</v>
       </c>
@@ -5949,8 +5457,8 @@
       <c r="E27" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
       <c r="H27" s="1" t="s">
         <v>192</v>
       </c>
@@ -5980,8 +5488,8 @@
       <c r="E28" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
       <c r="H28" s="1" t="s">
         <v>197</v>
       </c>
@@ -6011,8 +5519,8 @@
       <c r="E29" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
       <c r="H29" s="1" t="s">
         <v>201</v>
       </c>
@@ -6042,8 +5550,8 @@
       <c r="E30" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
       <c r="H30" s="1" t="s">
         <v>205</v>
       </c>
@@ -6073,8 +5581,8 @@
       <c r="E31" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
       <c r="H31" s="1" t="s">
         <v>209</v>
       </c>
@@ -6102,8 +5610,8 @@
       <c r="E32" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
       <c r="H32" s="1" t="s">
         <v>213</v>
       </c>
@@ -6127,13 +5635,13 @@
       <c r="E33" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
       <c r="H33" s="1" t="s">
         <v>216</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>854</v>
+        <v>663</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>217</v>
@@ -6152,13 +5660,13 @@
       <c r="E34" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
       <c r="H34" s="1" t="s">
         <v>218</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>855</v>
+        <v>664</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>219</v>
@@ -6181,8 +5689,8 @@
       <c r="E35" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
       <c r="H35" s="1" t="s">
         <v>221</v>
       </c>
@@ -6190,7 +5698,7 @@
         <v>222</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>837</v>
+        <v>646</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>223</v>
@@ -6212,8 +5720,8 @@
       <c r="E36" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
       <c r="H36" s="1" t="s">
         <v>225</v>
       </c>
@@ -6221,7 +5729,7 @@
         <v>226</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>838</v>
+        <v>647</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>228</v>
@@ -6243,8 +5751,8 @@
       <c r="E37" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
       <c r="H37" s="1" t="s">
         <v>229</v>
       </c>
@@ -6252,7 +5760,7 @@
         <v>230</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>839</v>
+        <v>648</v>
       </c>
       <c r="K37" s="4" t="s">
         <v>232</v>
@@ -6274,8 +5782,8 @@
       <c r="E38" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
       <c r="H38" s="1" t="s">
         <v>233</v>
       </c>
@@ -6283,7 +5791,7 @@
         <v>234</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>840</v>
+        <v>649</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>236</v>
@@ -6305,8 +5813,8 @@
       <c r="E39" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
       <c r="H39" s="1" t="s">
         <v>237</v>
       </c>
@@ -6314,7 +5822,7 @@
         <v>238</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>841</v>
+        <v>650</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>240</v>
@@ -6334,8 +5842,8 @@
       <c r="E40" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
       <c r="H40" s="1" t="s">
         <v>241</v>
       </c>
@@ -6343,7 +5851,7 @@
         <v>242</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>842</v>
+        <v>651</v>
       </c>
       <c r="K40" s="4"/>
     </row>
@@ -6359,14 +5867,14 @@
       <c r="E41" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
       <c r="H41" s="1" t="s">
         <v>244</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="12" t="s">
-        <v>843</v>
+        <v>652</v>
       </c>
       <c r="K41" s="4"/>
     </row>
@@ -6382,14 +5890,14 @@
       <c r="E42" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
       <c r="H42" s="1" t="s">
         <v>246</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="12" t="s">
-        <v>844</v>
+        <v>653</v>
       </c>
       <c r="K42" s="4"/>
     </row>
@@ -6409,16 +5917,16 @@
       <c r="E43" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
       <c r="H43" s="12" t="s">
-        <v>828</v>
+        <v>637</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>249</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>845</v>
+        <v>654</v>
       </c>
       <c r="K43" s="5" t="s">
         <v>250</v>
@@ -6440,10 +5948,10 @@
       <c r="E44" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
       <c r="H44" s="12" t="s">
-        <v>829</v>
+        <v>638</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>252</v>
@@ -6471,10 +5979,10 @@
       <c r="E45" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
       <c r="H45" s="12" t="s">
-        <v>830</v>
+        <v>639</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>255</v>
@@ -6498,10 +6006,10 @@
       <c r="E46" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
       <c r="H46" s="12" t="s">
-        <v>831</v>
+        <v>640</v>
       </c>
       <c r="I46" s="5"/>
       <c r="J46" s="12" t="s">
@@ -6521,10 +6029,10 @@
       <c r="E47" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
       <c r="H47" s="12" t="s">
-        <v>832</v>
+        <v>641</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="12" t="s">
@@ -6544,10 +6052,10 @@
       <c r="E48" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
       <c r="H48" s="12" t="s">
-        <v>833</v>
+        <v>642</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="12" t="s">
@@ -6567,10 +6075,10 @@
       <c r="E49" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
       <c r="H49" s="12" t="s">
-        <v>834</v>
+        <v>643</v>
       </c>
       <c r="I49" s="5"/>
       <c r="J49" s="12" t="s">
@@ -6590,10 +6098,10 @@
       <c r="E50" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
       <c r="H50" s="12" t="s">
-        <v>835</v>
+        <v>644</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="12" t="s">
@@ -6617,16 +6125,16 @@
       <c r="E51" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
       <c r="H51" s="12" t="s">
-        <v>836</v>
+        <v>645</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>263</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>846</v>
+        <v>655</v>
       </c>
       <c r="K51" s="4" t="s">
         <v>264</v>
@@ -6648,8 +6156,8 @@
       <c r="E52" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
       <c r="H52" s="12" t="s">
         <v>251</v>
       </c>
@@ -6657,7 +6165,7 @@
         <v>266</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>847</v>
+        <v>656</v>
       </c>
       <c r="K52" s="4" t="s">
         <v>267</v>
@@ -6679,8 +6187,8 @@
       <c r="E53" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
       <c r="H53" s="12" t="s">
         <v>254</v>
       </c>
@@ -6688,7 +6196,7 @@
         <v>268</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>848</v>
+        <v>657</v>
       </c>
       <c r="K53" s="4" t="s">
         <v>269</v>
@@ -6710,8 +6218,8 @@
       <c r="E54" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
       <c r="H54" s="12" t="s">
         <v>257</v>
       </c>
@@ -6719,7 +6227,7 @@
         <v>271</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>849</v>
+        <v>658</v>
       </c>
       <c r="K54" s="4" t="s">
         <v>272</v>
@@ -6739,14 +6247,14 @@
       <c r="E55" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
       <c r="H55" s="12" t="s">
         <v>258</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="12" t="s">
-        <v>850</v>
+        <v>659</v>
       </c>
       <c r="K55" s="4" t="s">
         <v>273</v>
@@ -6764,14 +6272,14 @@
       <c r="E56" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
       <c r="H56" s="12" t="s">
         <v>259</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="12" t="s">
-        <v>851</v>
+        <v>660</v>
       </c>
       <c r="K56" s="4"/>
     </row>
@@ -6787,14 +6295,14 @@
       <c r="E57" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
       <c r="H57" s="12" t="s">
         <v>260</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="12" t="s">
-        <v>852</v>
+        <v>661</v>
       </c>
       <c r="K57" s="4"/>
     </row>
@@ -6810,14 +6318,14 @@
       <c r="E58" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
       <c r="H58" s="12" t="s">
         <v>261</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="12" t="s">
-        <v>853</v>
+        <v>662</v>
       </c>
       <c r="K58" s="4"/>
     </row>
@@ -6837,10 +6345,10 @@
       <c r="E59" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="F59" s="26" t="s">
+      <c r="F59" s="28" t="s">
         <v>275</v>
       </c>
-      <c r="G59" s="26" t="s">
+      <c r="G59" s="28" t="s">
         <v>276</v>
       </c>
       <c r="H59" s="5" t="s">
@@ -6872,8 +6380,8 @@
       <c r="E60" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
       <c r="H60" s="5" t="s">
         <v>280</v>
       </c>
@@ -6903,8 +6411,8 @@
       <c r="E61" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
       <c r="H61" s="5" t="s">
         <v>285</v>
       </c>
@@ -6930,8 +6438,8 @@
       <c r="E62" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
       <c r="H62" s="5" t="s">
         <v>289</v>
       </c>
@@ -6953,8 +6461,8 @@
       <c r="E63" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
       <c r="H63" s="5" t="s">
         <v>291</v>
       </c>
@@ -6976,8 +6484,8 @@
       <c r="E64" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
       <c r="H64" s="5" t="s">
         <v>293</v>
       </c>
@@ -6999,8 +6507,8 @@
       <c r="E65" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
       <c r="H65" s="5" t="s">
         <v>295</v>
       </c>
@@ -7022,8 +6530,8 @@
       <c r="E66" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
       <c r="H66" s="5" t="s">
         <v>297</v>
       </c>
@@ -7039,13 +6547,13 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="33" t="s">
+      <c r="A69" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="B69" s="33"/>
-      <c r="C69" s="33"/>
-      <c r="D69" s="33"/>
-      <c r="E69" s="33"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
       <c r="I69" s="1" t="s">
         <v>301</v>
       </c>
@@ -8592,10 +8100,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N110"/>
+  <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I98" sqref="I98"/>
+    <sheetView tabSelected="1" topLeftCell="E42" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8607,22 +8115,22 @@
     <col min="5" max="6" width="19.375" style="2" customWidth="1"/>
     <col min="7" max="7" width="13" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="26.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1"/>
     <col min="11" max="11" width="28.375" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>533</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
       <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
@@ -8634,14 +8142,14 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="25"/>
+      <c r="D2" s="27"/>
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
@@ -8668,23 +8176,23 @@
       <c r="E3" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="28" t="s">
         <v>535</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>113</v>
+      <c r="H3" s="12" t="s">
+        <v>735</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>537</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -8703,19 +8211,19 @@
       <c r="E4" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="1" t="s">
-        <v>117</v>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="J4" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>540</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -8734,19 +8242,19 @@
       <c r="E5" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="1" t="s">
-        <v>121</v>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="J5" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>543</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -8761,14 +8269,8 @@
       <c r="E6" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>545</v>
-      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
@@ -8782,14 +8284,8 @@
       <c r="E7" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>546</v>
-      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
@@ -8803,14 +8299,8 @@
       <c r="E8" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>547</v>
-      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
@@ -8824,14 +8314,8 @@
       <c r="E9" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>548</v>
-      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
@@ -8845,14 +8329,8 @@
       <c r="E10" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>549</v>
-      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
@@ -8868,22 +8346,22 @@
         <v>9</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="F11" s="28" t="s">
         <v>550</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="G11" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>739</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="G11" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>553</v>
+      <c r="J11" s="12" t="s">
+        <v>740</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>264</v>
@@ -8903,18 +8381,18 @@
         <v>52</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="1" t="s">
-        <v>141</v>
+        <v>549</v>
+      </c>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>539</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>267</v>
@@ -8934,18 +8412,18 @@
         <v>54</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="1" t="s">
-        <v>144</v>
+        <v>549</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>556</v>
+      <c r="J13" s="12" t="s">
+        <v>542</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>269</v>
@@ -8965,18 +8443,18 @@
         <v>55</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="1" t="s">
-        <v>148</v>
+        <v>549</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="12" t="s">
+        <v>125</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>557</v>
+      <c r="J14" s="12" t="s">
+        <v>544</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>272</v>
@@ -8994,15 +8472,12 @@
         <v>57</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="J15" s="12" t="s">
+        <v>545</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>273</v>
@@ -9018,16 +8493,10 @@
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>559</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
@@ -9039,16 +8508,10 @@
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>560</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
@@ -9060,16 +8523,10 @@
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>561</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
@@ -9085,21 +8542,21 @@
         <v>9</v>
       </c>
       <c r="E19" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="12" t="s">
+        <v>737</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>741</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>562</v>
-      </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -9116,21 +8573,21 @@
         <v>52</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="1" t="s">
-        <v>168</v>
+        <v>560</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="12" t="s">
+        <v>713</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -9145,18 +8602,15 @@
         <v>54</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="J21" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -9171,18 +8625,15 @@
         <v>55</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>571</v>
+        <v>560</v>
+      </c>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="J22" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -9197,18 +8648,15 @@
         <v>57</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>573</v>
+        <v>560</v>
+      </c>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="J23" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -9221,16 +8669,10 @@
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>575</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
@@ -9242,16 +8684,10 @@
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>576</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
@@ -9263,16 +8699,10 @@
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>577</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
@@ -9288,21 +8718,21 @@
         <v>9</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="1" t="s">
-        <v>192</v>
+        <v>572</v>
+      </c>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="12" t="s">
+        <v>742</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>580</v>
+        <v>573</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>738</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -9319,21 +8749,21 @@
         <v>52</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="1" t="s">
-        <v>197</v>
+        <v>572</v>
+      </c>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="12" t="s">
+        <v>141</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>582</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>583</v>
+        <v>575</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>553</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -9348,18 +8778,15 @@
         <v>54</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>585</v>
+        <v>572</v>
+      </c>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="J29" s="12" t="s">
+        <v>554</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -9374,18 +8801,15 @@
         <v>55</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>587</v>
+        <v>572</v>
+      </c>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="J30" s="12" t="s">
+        <v>555</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -9400,18 +8824,15 @@
         <v>57</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>589</v>
+        <v>572</v>
+      </c>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="J31" s="12" t="s">
+        <v>556</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -9424,16 +8845,10 @@
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>591</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
@@ -9445,16 +8860,10 @@
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>592</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
@@ -9466,16 +8875,10 @@
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>593</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
@@ -9491,21 +8894,21 @@
         <v>9</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>594</v>
-      </c>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="1" t="s">
-        <v>595</v>
+        <v>583</v>
+      </c>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="12" t="s">
+        <v>743</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>597</v>
+        <v>584</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>749</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -9513,7 +8916,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="C36" s="4">
         <v>2</v>
@@ -9522,21 +8925,17 @@
         <v>52</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>594</v>
-      </c>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>602</v>
+        <v>583</v>
+      </c>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="12" t="s">
+        <v>142</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -9544,7 +8943,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="C37" s="4">
         <v>3</v>
@@ -9553,21 +8952,21 @@
         <v>54</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>594</v>
-      </c>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="1" t="s">
-        <v>605</v>
+        <v>583</v>
+      </c>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="12" t="s">
+        <v>744</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>606</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>607</v>
+        <v>589</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>146</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -9584,21 +8983,21 @@
         <v>55</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>594</v>
-      </c>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="1" t="s">
-        <v>609</v>
+        <v>583</v>
+      </c>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="12" t="s">
+        <v>745</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>610</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>611</v>
+        <v>591</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>150</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -9615,21 +9014,21 @@
         <v>57</v>
       </c>
       <c r="E39" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="12" t="s">
+        <v>746</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="K39" s="4" t="s">
         <v>594</v>
-      </c>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -9644,20 +9043,17 @@
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>594</v>
-      </c>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="1" t="s">
-        <v>617</v>
+        <v>583</v>
+      </c>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="12" t="s">
+        <v>747</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>618</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="K40" s="4"/>
+        <v>595</v>
+      </c>
+      <c r="J40" s="12"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
@@ -9671,1775 +9067,1627 @@
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>594</v>
-      </c>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="1" t="s">
-        <v>620</v>
+        <v>583</v>
+      </c>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="12" t="s">
+        <v>748</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>622</v>
+        <v>596</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="12"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
         <v>8</v>
       </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4">
         <v>8</v>
       </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4" t="s">
-        <v>594</v>
-      </c>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="5">
-        <v>1</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="5">
-        <v>1</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>629</v>
-      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>630</v>
+        <v>9</v>
       </c>
       <c r="C44" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="1" t="s">
-        <v>631</v>
+        <v>597</v>
+      </c>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="12" t="s">
+        <v>750</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>632</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>633</v>
+        <v>598</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>751</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>634</v>
+        <v>599</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>17</v>
+        <v>600</v>
       </c>
       <c r="C45" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="1" t="s">
-        <v>635</v>
+        <v>597</v>
+      </c>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="12" t="s">
+        <v>168</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>637</v>
+        <v>601</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>564</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>638</v>
+        <v>602</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="C46" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="1" t="s">
-        <v>639</v>
+        <v>597</v>
+      </c>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="12" t="s">
+        <v>172</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>640</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>641</v>
+        <v>603</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>566</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>642</v>
+        <v>604</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C47" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>644</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>645</v>
+        <v>597</v>
+      </c>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="I47" s="18" t="s">
+        <v>779</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>568</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>646</v>
+        <v>605</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
+        <v>5</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="5">
+        <v>5</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
         <v>6</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B49" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C49" s="5">
         <v>6</v>
-      </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>648</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="5">
-        <v>7</v>
-      </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5">
-        <v>7</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+        <v>597</v>
+      </c>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
+        <v>597</v>
+      </c>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A51" s="5">
+        <v>8</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5">
+        <v>8</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
         <v>1</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B52" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C52" s="4">
         <v>1</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D52" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>656</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
+      <c r="E52" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="12" t="s">
+        <v>752</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
         <v>2</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B53" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C53" s="4">
         <v>2</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D53" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E52" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
+      <c r="E53" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="12" t="s">
+        <v>754</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="J53" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
         <v>3</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B54" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C54" s="4">
         <v>3</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D54" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>664</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
+      <c r="E54" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="12" t="s">
+        <v>755</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="J54" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
         <v>4</v>
-      </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4">
-        <v>4</v>
-      </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
-        <v>5</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+        <v>609</v>
+      </c>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+        <v>609</v>
+      </c>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+        <v>609</v>
+      </c>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="5">
+        <v>609</v>
+      </c>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <v>8</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4">
+        <v>8</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A60" s="5">
         <v>1</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B60" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C60" s="5">
         <v>1</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D60" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="5" t="s">
-        <v>677</v>
-      </c>
-      <c r="F59" s="26" t="s">
-        <v>678</v>
-      </c>
-      <c r="G59" s="26" t="s">
+      <c r="E60" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="F60" s="28" t="s">
+        <v>617</v>
+      </c>
+      <c r="G60" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="H59" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>680</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="K59" s="5" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="5">
+      <c r="H60" s="12" t="s">
+        <v>756</v>
+      </c>
+      <c r="I60" s="18" t="s">
+        <v>683</v>
+      </c>
+      <c r="J60" s="12" t="s">
+        <v>775</v>
+      </c>
+      <c r="K60" s="18" t="s">
+        <v>685</v>
+      </c>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="19"/>
+      <c r="P60" s="19"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A61" s="5">
         <v>2</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B61" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C61" s="5">
         <v>2</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D61" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E60" s="5" t="s">
-        <v>677</v>
-      </c>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="I60" s="5" t="s">
+      <c r="E61" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="I61" s="18" t="s">
         <v>684</v>
       </c>
-      <c r="J60" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="K60" s="5" t="s">
+      <c r="J61" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="K61" s="18" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="5">
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="19"/>
+      <c r="P61" s="19"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A62" s="5">
         <v>3</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B62" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C62" s="5">
         <v>3</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D62" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E61" s="5" t="s">
-        <v>677</v>
-      </c>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="1" t="s">
+      <c r="E62" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="12"/>
+      <c r="J62" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="K62" s="18" t="s">
         <v>687</v>
       </c>
-      <c r="I61" s="5" t="s">
+      <c r="M62" s="19"/>
+      <c r="O62" s="19"/>
+      <c r="P62" s="19"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A63" s="5">
+        <v>4</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="5">
+        <v>4</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="12"/>
+      <c r="J63" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="K63" s="18" t="s">
         <v>688</v>
       </c>
-      <c r="J61" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="K61" s="5" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="5">
-        <v>4</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C62" s="5">
-        <v>4</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>677</v>
-      </c>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="K62" s="5" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="5">
+      <c r="M63" s="19"/>
+      <c r="O63" s="19"/>
+      <c r="P63" s="19"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A64" s="5">
         <v>5</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B64" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C64" s="5">
         <v>5</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D64" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E63" s="5" t="s">
-        <v>677</v>
-      </c>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="K63" s="5" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="5">
+      <c r="E64" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="12"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="24"/>
+      <c r="O64" s="19"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A65" s="5">
         <v>6</v>
-      </c>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5">
-        <v>6</v>
-      </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5" t="s">
-        <v>677</v>
-      </c>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="5">
-        <v>7</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5" t="s">
-        <v>677</v>
-      </c>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="12"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="24"/>
+      <c r="O65" s="19"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5" t="s">
-        <v>677</v>
-      </c>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="4">
+        <v>616</v>
+      </c>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="12"/>
+      <c r="M66" s="19"/>
+      <c r="O66" s="19"/>
+      <c r="P66" s="7"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A67" s="5">
+        <v>8</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5">
+        <v>8</v>
+      </c>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="12"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="19"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
         <v>1</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B68" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C68" s="4">
         <v>1</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D68" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E67" s="4" t="s">
-        <v>705</v>
-      </c>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>707</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="K67" s="4" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="4">
+      <c r="E68" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="12" t="s">
+        <v>757</v>
+      </c>
+      <c r="I68" s="23" t="s">
+        <v>695</v>
+      </c>
+      <c r="J68" s="12" t="s">
+        <v>761</v>
+      </c>
+      <c r="K68" s="23" t="s">
+        <v>699</v>
+      </c>
+      <c r="M68" s="19"/>
+      <c r="O68" s="19"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
         <v>2</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>710</v>
-      </c>
-      <c r="C68" s="4">
+      <c r="B69" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="C69" s="4">
         <v>2</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D69" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E68" s="4" t="s">
-        <v>705</v>
-      </c>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>712</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="K68" s="4" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="4">
+      <c r="E69" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="12" t="s">
+        <v>758</v>
+      </c>
+      <c r="I69" s="23" t="s">
+        <v>696</v>
+      </c>
+      <c r="J69" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="K69" s="23" t="s">
+        <v>700</v>
+      </c>
+      <c r="M69" s="19"/>
+      <c r="N69" s="19"/>
+      <c r="O69" s="19"/>
+      <c r="P69" s="19"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
         <v>3</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B70" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C70" s="4">
         <v>3</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D70" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E69" s="4" t="s">
-        <v>705</v>
-      </c>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>716</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="K69" s="4" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="4">
+      <c r="E70" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="12" t="s">
+        <v>759</v>
+      </c>
+      <c r="I70" s="23" t="s">
+        <v>697</v>
+      </c>
+      <c r="J70" s="12" t="s">
+        <v>763</v>
+      </c>
+      <c r="K70" s="23" t="s">
+        <v>701</v>
+      </c>
+      <c r="M70" s="19"/>
+      <c r="N70" s="19"/>
+      <c r="O70" s="19"/>
+      <c r="P70" s="19"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
         <v>4</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B71" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C71" s="4">
         <v>4</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D71" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E70" s="4" t="s">
-        <v>705</v>
-      </c>
-      <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>720</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="K70" s="4" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="4">
+      <c r="E71" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="12" t="s">
+        <v>760</v>
+      </c>
+      <c r="I71" s="23" t="s">
+        <v>698</v>
+      </c>
+      <c r="J71" s="12" t="s">
+        <v>764</v>
+      </c>
+      <c r="K71" s="23" t="s">
+        <v>702</v>
+      </c>
+      <c r="M71" s="19"/>
+      <c r="N71" s="19"/>
+      <c r="O71" s="7"/>
+      <c r="P71" s="19"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
         <v>5</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B72" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C72" s="4">
         <v>5</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D72" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E71" s="4" t="s">
-        <v>705</v>
-      </c>
-      <c r="F71" s="26"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="K71" s="4" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="4">
+      <c r="E72" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="19"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="19"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A73" s="4">
         <v>6</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B73" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C73" s="4">
         <v>6</v>
-      </c>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4" t="s">
-        <v>705</v>
-      </c>
-      <c r="F72" s="26"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>728</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" s="4">
-        <v>7</v>
-      </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4">
-        <v>7</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4" t="s">
-        <v>705</v>
-      </c>
-      <c r="F73" s="26"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+        <v>618</v>
+      </c>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="M73" s="19"/>
+      <c r="O73" s="7"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4" t="s">
-        <v>705</v>
-      </c>
-      <c r="F74" s="26"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" s="5">
+        <v>618</v>
+      </c>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
+      <c r="M74" s="19"/>
+      <c r="O74" s="7"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A75" s="4">
+        <v>8</v>
+      </c>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4">
+        <v>8</v>
+      </c>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="M75" s="19"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A76" s="5">
         <v>1</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B76" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C76" s="5">
         <v>1</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D76" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E75" s="5" t="s">
-        <v>734</v>
-      </c>
-      <c r="F75" s="26"/>
-      <c r="G75" s="26"/>
-      <c r="H75" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>736</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="K75" s="5" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" s="5">
+      <c r="E76" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="12" t="s">
+        <v>765</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J76" s="12" t="s">
+        <v>776</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="7"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A77" s="5">
         <v>2</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B77" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C77" s="5">
         <v>2</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D77" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E76" s="5" t="s">
-        <v>734</v>
-      </c>
-      <c r="F76" s="26"/>
-      <c r="G76" s="26"/>
-      <c r="H76" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>740</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="K76" s="5" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77" s="5">
+      <c r="E77" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="12"/>
+      <c r="J77" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="7"/>
+      <c r="P77" s="7"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A78" s="5">
         <v>3</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B78" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C78" s="5">
         <v>3</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D78" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E77" s="5" t="s">
-        <v>734</v>
-      </c>
-      <c r="F77" s="26"/>
-      <c r="G77" s="26"/>
-      <c r="H77" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="I77" s="5" t="s">
-        <v>744</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="K77" s="5" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="5">
+      <c r="E78" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="F78" s="28"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="12"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="7"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A79" s="5">
         <v>4</v>
-      </c>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5">
-        <v>4</v>
-      </c>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5" t="s">
-        <v>734</v>
-      </c>
-      <c r="F78" s="26"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="K78" s="5"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" s="5">
-        <v>5</v>
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="5" t="s">
-        <v>734</v>
-      </c>
-      <c r="F79" s="26"/>
-      <c r="G79" s="26"/>
-      <c r="H79" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+        <v>620</v>
+      </c>
+      <c r="F79" s="28"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="12"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="5" t="s">
-        <v>734</v>
-      </c>
-      <c r="F80" s="26"/>
-      <c r="G80" s="26"/>
-      <c r="H80" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+        <v>620</v>
+      </c>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="12"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+      <c r="O80" s="7"/>
+      <c r="P80" s="7"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="5" t="s">
-        <v>734</v>
-      </c>
-      <c r="F81" s="26"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+        <v>620</v>
+      </c>
+      <c r="F81" s="28"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="12"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
+      <c r="O81" s="7"/>
+      <c r="P81" s="7"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="5" t="s">
-        <v>734</v>
-      </c>
-      <c r="F82" s="26"/>
-      <c r="G82" s="26"/>
-      <c r="H82" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" s="4">
+        <v>620</v>
+      </c>
+      <c r="F82" s="28"/>
+      <c r="G82" s="28"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7"/>
+      <c r="O82" s="7"/>
+      <c r="P82" s="7"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A83" s="5">
+        <v>8</v>
+      </c>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5">
+        <v>8</v>
+      </c>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="F83" s="28"/>
+      <c r="G83" s="28"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="7"/>
+      <c r="O83" s="11"/>
+      <c r="P83" s="7"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A84" s="4">
         <v>1</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B84" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C84" s="4">
         <v>1</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D84" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E83" s="4" t="s">
-        <v>757</v>
-      </c>
-      <c r="F83" s="26"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="I83" s="4" t="s">
-        <v>759</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="K83" s="4" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" s="4">
+      <c r="E84" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="12" t="s">
+        <v>766</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J84" s="12" t="s">
+        <v>767</v>
+      </c>
+      <c r="K84" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M84" s="9"/>
+      <c r="N84" s="7"/>
+      <c r="P84" s="7"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A85" s="4">
         <v>2</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B85" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C85" s="4">
         <v>2</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D85" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E84" s="4" t="s">
-        <v>757</v>
-      </c>
-      <c r="F84" s="26"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>763</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="K84" s="4" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" s="4">
+      <c r="E85" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="F85" s="28"/>
+      <c r="G85" s="28"/>
+      <c r="J85" s="12" t="s">
+        <v>768</v>
+      </c>
+      <c r="K85" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M85" s="9"/>
+      <c r="P85" s="7"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A86" s="4">
         <v>3</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B86" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C86" s="4">
         <v>3</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D86" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E85" s="4" t="s">
-        <v>757</v>
-      </c>
-      <c r="F85" s="26"/>
-      <c r="G85" s="26"/>
-      <c r="H85" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="K85" s="4" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86" s="4">
+      <c r="E86" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="M86" s="9"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A87" s="4">
         <v>4</v>
-      </c>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4">
-        <v>4</v>
-      </c>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4" t="s">
-        <v>757</v>
-      </c>
-      <c r="F86" s="26"/>
-      <c r="G86" s="26"/>
-      <c r="H86" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="I86" s="4"/>
-      <c r="J86" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="K86" s="4"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" s="4">
-        <v>5</v>
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4" t="s">
-        <v>757</v>
-      </c>
-      <c r="F87" s="26"/>
-      <c r="G87" s="26"/>
-      <c r="H87" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="I87" s="4"/>
-      <c r="J87" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="K87" s="4"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+        <v>621</v>
+      </c>
+      <c r="F87" s="28"/>
+      <c r="G87" s="28"/>
+      <c r="M87" s="25" t="s">
+        <v>769</v>
+      </c>
+      <c r="N87" s="12" t="s">
+        <v>726</v>
+      </c>
+      <c r="O87" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="P87" s="12" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4" t="s">
-        <v>757</v>
-      </c>
-      <c r="F88" s="26"/>
-      <c r="G88" s="26"/>
-      <c r="H88" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="I88" s="4"/>
-      <c r="J88" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="K88" s="4"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+        <v>621</v>
+      </c>
+      <c r="F88" s="28"/>
+      <c r="G88" s="28"/>
+      <c r="M88" s="25" t="s">
+        <v>770</v>
+      </c>
+      <c r="N88" s="12" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B89" s="4"/>
       <c r="C89" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4" t="s">
-        <v>757</v>
-      </c>
-      <c r="F89" s="26"/>
-      <c r="G89" s="26"/>
-      <c r="H89" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="I89" s="4"/>
-      <c r="J89" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="K89" s="4"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+        <v>621</v>
+      </c>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="M89" s="25"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4" t="s">
-        <v>757</v>
-      </c>
-      <c r="F90" s="26"/>
-      <c r="G90" s="26"/>
-      <c r="H90" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="I90" s="4"/>
-      <c r="J90" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="K90" s="4"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A91" s="5">
+        <v>621</v>
+      </c>
+      <c r="F90" s="28"/>
+      <c r="G90" s="28"/>
+      <c r="M90" s="9"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A91" s="4">
+        <v>8</v>
+      </c>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4">
+        <v>8</v>
+      </c>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="F91" s="28"/>
+      <c r="G91" s="28"/>
+      <c r="M91" s="9"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A92" s="5">
         <v>1</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B92" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C91" s="5">
+      <c r="C92" s="5">
         <v>1</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D92" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E91" s="5" t="s">
-        <v>780</v>
-      </c>
-      <c r="F91" s="26" t="s">
+      <c r="E92" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="F92" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="G91" s="26" t="s">
+      <c r="G92" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="H91" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="I91" s="5" t="s">
-        <v>782</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="K91" s="5" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" s="5">
+      <c r="H92" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="J92" s="12" t="s">
+        <v>772</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A93" s="5">
         <v>2</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B93" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C92" s="5">
+      <c r="C93" s="5">
         <v>2</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D93" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E92" s="5" t="s">
-        <v>780</v>
-      </c>
-      <c r="F92" s="26"/>
-      <c r="G92" s="26"/>
-      <c r="H92" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="I92" s="18" t="s">
-        <v>860</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="K92" s="5" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A93" s="5">
+      <c r="E93" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="F93" s="28"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="I93" s="18" t="s">
+        <v>667</v>
+      </c>
+      <c r="J93" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A94" s="5">
         <v>3</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B94" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C93" s="5">
+      <c r="C94" s="5">
         <v>3</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D94" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E93" s="5" t="s">
-        <v>780</v>
-      </c>
-      <c r="F93" s="26"/>
-      <c r="G93" s="26"/>
-      <c r="H93" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="I93" s="18" t="s">
-        <v>861</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="K93" s="5" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A94" s="5">
+      <c r="E94" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="F94" s="28"/>
+      <c r="G94" s="28"/>
+      <c r="H94" s="12" t="s">
+        <v>639</v>
+      </c>
+      <c r="I94" s="18" t="s">
+        <v>668</v>
+      </c>
+      <c r="J94" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A95" s="5">
         <v>4</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B95" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C94" s="5">
+      <c r="C95" s="5">
         <v>4</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D95" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E94" s="5" t="s">
-        <v>780</v>
-      </c>
-      <c r="F94" s="26"/>
-      <c r="G94" s="26"/>
-      <c r="H94" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="I94" s="5" t="s">
-        <v>789</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="K94" s="5" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A95" s="5">
+      <c r="E95" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="J95" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="K95" s="5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A96" s="5">
         <v>5</v>
-      </c>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5">
-        <v>5</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>780</v>
-      </c>
-      <c r="F95" s="26"/>
-      <c r="G95" s="26"/>
-      <c r="H95" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="I95" s="5" t="s">
-        <v>793</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="K95" s="5" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96" s="5">
-        <v>6</v>
       </c>
       <c r="B96" s="5"/>
       <c r="C96" s="5">
-        <v>6</v>
-      </c>
-      <c r="D96" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="E96" s="5" t="s">
-        <v>780</v>
-      </c>
-      <c r="F96" s="26"/>
-      <c r="G96" s="26"/>
-      <c r="H96" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="I96" s="5"/>
-      <c r="J96" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="K96" s="5"/>
+        <v>622</v>
+      </c>
+      <c r="F96" s="28"/>
+      <c r="G96" s="28"/>
+      <c r="H96" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="J96" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="K96" s="5" t="s">
+        <v>630</v>
+      </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B97" s="5"/>
       <c r="C97" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="5" t="s">
-        <v>780</v>
-      </c>
-      <c r="F97" s="26"/>
-      <c r="G97" s="26"/>
-      <c r="H97" s="1" t="s">
-        <v>801</v>
-      </c>
+        <v>622</v>
+      </c>
+      <c r="F97" s="28"/>
+      <c r="G97" s="28"/>
+      <c r="H97" s="12"/>
       <c r="I97" s="5"/>
-      <c r="J97" s="1" t="s">
-        <v>802</v>
-      </c>
+      <c r="J97" s="12"/>
       <c r="K97" s="5"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B98" s="5"/>
       <c r="C98" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="5" t="s">
-        <v>780</v>
-      </c>
-      <c r="F98" s="26"/>
-      <c r="G98" s="26"/>
-      <c r="H98" s="1" t="s">
-        <v>803</v>
-      </c>
+        <v>622</v>
+      </c>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="12"/>
       <c r="I98" s="5"/>
-      <c r="J98" s="1" t="s">
-        <v>804</v>
-      </c>
       <c r="K98" s="5"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A99" s="4">
-        <v>1</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C99" s="4">
-        <v>1</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="F99" s="26" t="s">
-        <v>805</v>
-      </c>
-      <c r="G99" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="I99" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="K99" s="4" t="s">
-        <v>809</v>
-      </c>
+      <c r="A99" s="5">
+        <v>8</v>
+      </c>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5">
+        <v>8</v>
+      </c>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="F99" s="28"/>
+      <c r="G99" s="28"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="5"/>
+      <c r="K99" s="5"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="C100" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="F100" s="26"/>
-      <c r="G100" s="26"/>
-      <c r="H100" s="1" t="s">
-        <v>810</v>
+      <c r="F100" s="28" t="s">
+        <v>631</v>
+      </c>
+      <c r="G100" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="H100" s="12" t="s">
+        <v>773</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>811</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="K100" s="4" t="s">
-        <v>813</v>
+        <v>632</v>
+      </c>
+      <c r="J100" s="12" t="s">
+        <v>774</v>
+      </c>
+      <c r="K100" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>284</v>
+        <v>107</v>
       </c>
       <c r="C101" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="F101" s="26"/>
-      <c r="G101" s="26"/>
-      <c r="H101" s="1" t="s">
-        <v>814</v>
+      <c r="F101" s="28"/>
+      <c r="G101" s="28"/>
+      <c r="H101" s="12" t="s">
+        <v>251</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>815</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>816</v>
+        <v>633</v>
+      </c>
+      <c r="J101" s="12" t="s">
+        <v>656</v>
       </c>
       <c r="K101" s="4" t="s">
-        <v>817</v>
+        <v>634</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
-        <v>4</v>
-      </c>
-      <c r="B102" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="C102" s="4">
-        <v>4</v>
-      </c>
-      <c r="D102" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="E102" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="F102" s="26"/>
-      <c r="G102" s="26"/>
-      <c r="H102" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="I102" s="4"/>
-      <c r="J102" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="K102" s="4"/>
+      <c r="F102" s="28"/>
+      <c r="G102" s="28"/>
+      <c r="H102" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="J102" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="K102" s="4" t="s">
+        <v>636</v>
+      </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B103" s="4"/>
       <c r="C103" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="F103" s="26"/>
-      <c r="G103" s="26"/>
-      <c r="H103" s="1" t="s">
-        <v>820</v>
-      </c>
+      <c r="F103" s="28"/>
+      <c r="G103" s="28"/>
       <c r="I103" s="4"/>
-      <c r="J103" s="1" t="s">
-        <v>821</v>
-      </c>
       <c r="K103" s="4"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B104" s="4"/>
       <c r="C104" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="F104" s="26"/>
-      <c r="G104" s="26"/>
-      <c r="H104" s="1" t="s">
-        <v>822</v>
-      </c>
+      <c r="F104" s="28"/>
+      <c r="G104" s="28"/>
       <c r="I104" s="4"/>
-      <c r="J104" s="1" t="s">
-        <v>823</v>
-      </c>
       <c r="K104" s="4"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B105" s="4"/>
       <c r="C105" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="F105" s="26"/>
-      <c r="G105" s="26"/>
-      <c r="H105" s="1" t="s">
-        <v>824</v>
-      </c>
+      <c r="F105" s="28"/>
+      <c r="G105" s="28"/>
       <c r="I105" s="4"/>
-      <c r="J105" s="1" t="s">
-        <v>825</v>
-      </c>
       <c r="K105" s="4"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B106" s="4"/>
       <c r="C106" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="F106" s="26"/>
-      <c r="G106" s="26"/>
-      <c r="H106" s="1" t="s">
-        <v>826</v>
-      </c>
+      <c r="F106" s="28"/>
+      <c r="G106" s="28"/>
       <c r="I106" s="4"/>
-      <c r="J106" s="1" t="s">
-        <v>827</v>
-      </c>
       <c r="K106" s="4"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H110" s="1">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107" s="4">
+        <v>8</v>
+      </c>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4">
+        <v>8</v>
+      </c>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F107" s="28"/>
+      <c r="G107" s="28"/>
+      <c r="I107" s="4"/>
+      <c r="K107" s="4"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H111" s="1">
         <v>104</v>
       </c>
-      <c r="J110" s="1">
+      <c r="J111" s="1">
         <v>104</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="F59:F90"/>
-    <mergeCell ref="F91:F98"/>
-    <mergeCell ref="F99:F106"/>
+    <mergeCell ref="F60:F91"/>
+    <mergeCell ref="F92:F99"/>
+    <mergeCell ref="F100:F107"/>
     <mergeCell ref="G3:G10"/>
-    <mergeCell ref="G11:G58"/>
-    <mergeCell ref="G59:G90"/>
-    <mergeCell ref="G91:G98"/>
-    <mergeCell ref="G99:G106"/>
+    <mergeCell ref="G11:G59"/>
+    <mergeCell ref="G60:G91"/>
+    <mergeCell ref="G92:G99"/>
+    <mergeCell ref="G100:G107"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F3:F10"/>
-    <mergeCell ref="F11:F58"/>
+    <mergeCell ref="F11:F59"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
